--- a/data/blanks/blanks_LM1.xlsx
+++ b/data/blanks/blanks_LM1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python projects\excel_test\data\blanks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L1ON\Documents\Работа\ОРТОС\Отчет по производству\data_27.04.2022\blanks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA1CB3-86AD-4C30-B139-E91AB457C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA1896-8D3B-44FB-A41C-1718C1D45091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-195" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LM1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LM1'!$A$6:$V$231</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="180">
   <si>
     <t>37487МД Бобышка LM Long (собств. разр.) Adin NP (3.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
@@ -60,9 +63,6 @@
     <t>37461МД Бобышка LM Long (собств. разр.) Adin RS (3.5/3.75/4.2/5.0/6.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36263МД Бобышка LM (собств. разр.) Adin WP (4.3/5.0) D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>Версия 5</t>
   </si>
   <si>
@@ -72,9 +72,6 @@
     <t>37491МД Бобышка LM Long (собств. разр.) Adin WP (4.3/5.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36297МД Бобышка LM (собств. разр.) Alpha Bio Conical Narrow D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>Версия 4</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>37493МАД Бобышка LM Long (собств. разр.) Alpha Bio Internal D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36216МСД Бобышка LM (собств. разр.) Ankylos C D=14 мм без позиционера без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>36316МСД Бобышка LM (собств. разр.) Ankylos C D=6 мм без позиционера без внутр. резьбы V.4</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>37495МСД Бобышка LM Long (собств. разр.) Ankylos C D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36216МД Бобышка LM (собств. разр.) Ankylos X D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>36316МД Бобышка LM (собств. разр.) Ankylos X D=6 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>37479МД Бобышка LM Long (собств. разр.) Ankylos X D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36264МД Бобышка LM (собств. разр.) Anthogyr Axiom D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37496МД Бобышка LM Short (собств. разр.) Anthogyr Axiom D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>37451МД Бобышка LM Long (собств. разр.) Astra Tech 3.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36203МД Бобышка LM (собств. разр.) Astra Tech 3.5/4.0 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37482МД Бобышка LM Short (собств. разр.) Astra Tech 3.5/4.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -147,36 +132,24 @@
     <t>37501МД Бобышка LM Long (собств. разр.) Astra Tech 4.5/5.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36239МД Бобышка LM (собств. разр.) Bego Semados 3.25/3.75 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37502МД Бобышка LM Short (собств. разр.) Bego Semados 3.25/3.75 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37503МД Бобышка LM Long (собств. разр.) Bego Semados 3.25/3.75 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36284МД Бобышка LM (собств. разр.) Bego Semados 4.1 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37504МД Бобышка LM Short (собств. разр.) Bego Semados 4.1 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37505МД Бобышка LM Long (собств. разр.) Bego Semados 4.1 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36222МД Бобышка LM (собств. разр.) Bego Semados 4.5 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37507МД Бобышка LM Long (собств. разр.) Bego Semados 4.5  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37506МД Бобышка LM Short (собств. разр.) Bego Semados 4.5  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36236МД Бобышка LM (собств. разр.) BioHorizons 3.0 D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37510МД Бобышка LM Short (собств. разр.) BioHorizons 3.0 D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -189,27 +162,18 @@
     <t>37513МБД Бобышка LM Long (собств. разр.) BioHorizons 3.5 D=10 мм без позиционера без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36255МД Бобышка LM (собств. разр.) BioHorizons 4.5 D=14 мм с позиционером без внутр. резьбы V.5</t>
-  </si>
-  <si>
     <t>37514МД Бобышка LM Short (собств. разр.) BioHorizons 4.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37515МД Бобышка LM Long (собств. разр.) BioHorizons 4.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36250МД Бобышка LM (собств. разр.) Biomet 3i Certain 3.4 D=14 мм с позиционером без внутр. резьбы (арт. IMAP32G) V.4</t>
-  </si>
-  <si>
     <t>37517МД Бобышка LM Long (собств. разр.) Biomet 3i Certain 3.4  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37516МД Бобышка LM Short (собств. разр.) Biomet 3i Certain 3.4  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36235МД Бобышка LM (собств. разр.) Biomet 3i Certain 4.1 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37525МД Бобышка LM Long (собств. разр.) Biotech 3.6/4.8 D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -228,27 +192,18 @@
     <t>37530МД Бобышка LM Short (собств. разр.) C-TECH ND 3.0  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36233МД Бобышка LM (собств. разр.) Conmet NP (2.2) D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>37550МД Бобышка LM Short (собств. разр.) Conmet NP (2.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>37551МД Бобышка LM Long (собств. разр.) Conmet NP (2.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36234МД Бобышка LM (собств. разр.) Conmet RP (2.7) D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>37555МД Бобышка LM Long (собств. разр.) Conmet RP (2.7) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>37554МД Бобышка LM Short (собств. разр.) Conmet RP (2.7)  D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36218МД Бобышка LM (собств. разр.) CSM D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37527МД Бобышка LM Long (собств. разр.) CSM  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -261,9 +216,6 @@
     <t>37630МД Бобышка LM Short (собств. разр.) Dentis Narrow  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36237МД Бобышка LM (собств. разр.) DIO SM NP (3.8) D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37535МД Бобышка LM Long (собств. разр.) DIO SM NP (3.8)  D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -276,9 +228,6 @@
     <t>37536МД Бобышка LM Short (собств. разр.) DIO SM RP (4.5)  D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36231МД Бобышка LM (собств. разр.) ICX Medentis D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>37470МД Бобышка LM Short (собств. разр.) ICX Medentis  D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -297,9 +246,6 @@
     <t>37540МД Бобышка LM Short (собств. разр.) Impla 4.2  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36275МД Бобышка LM (собств. разр.) Impla Conical 3.3 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37545МД Бобышка LM Long (собств. разр.) Impla Conical 3.3 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -327,9 +273,6 @@
     <t>37653МД Бобышка LM Short (собств. разр.) Implantium 3.4 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36278МД Бобышка LM (собств. разр.) Liko-M D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>37556МД Бобышка LM Short (собств. разр.) Liko-M D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -342,9 +285,6 @@
     <t>36983М Бобышка LM TRINITI MegaGen AnyOne D=12 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36279МД Бобышка LM (собств. разр.) MegaGen AnyOne D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>36379МД Бобышка LM (собств. разр.) MegaGen AnyOne D=6 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
@@ -357,12 +297,6 @@
     <t>36980М Бобышка LM TRINITI MegaGen AnyRidge D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36981М Бобышка LM TRINITI MegaGen AnyRidge D=14 мм с позиционером с внутр. резьбой V.1</t>
-  </si>
-  <si>
-    <t>36219МД Бобышка LM (собств. разр.) MegaGen AnyRidge D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>36319МД Бобышка LM (собств. разр.) MegaGen AnyRidge D=6 мм с позиционером с внутр. резьбой V.4</t>
   </si>
   <si>
@@ -375,9 +309,6 @@
     <t>36984М Бобышка LM TRINITI MegaGen MiNi D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36210МД Бобышка LM (собств. разр.) Mis NP (3.3) D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37570МД Бобышка LM Short (собств. разр.) Mis NP (3.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -393,18 +324,12 @@
     <t>37463МД Бобышка LM Long (собств. разр.) Mis SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36227МД Бобышка LM (собств. разр.) Mis WP (5.0/6.0) D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37572МД Бобышка LM Short (собств. разр.) Mis WP (5.0/6.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>37573МД Бобышка LM Long (собств. разр.) Mis WP (5.0/6.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36228МД Бобышка LM (собств. разр.) Mis C1 (Conical) NP (3.3) D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37452МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) NP (3.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
@@ -420,15 +345,9 @@
     <t>37481МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) SP (3.75/4.2) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36230МД Бобышка LM (собств. разр.) Mis C1 (Conical) WP (5.0) D=14 мм с позиционером с внутр. резьбой V.4</t>
-  </si>
-  <si>
     <t>37581МД Бобышка LM Long (собств. разр.) Mis C1 (Conical) WP (5.0) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36254МД Бобышка LM (собств. разр.) NeoBiotech 3.8 D=14 мм с позиционером без внутр. резьбы V.5</t>
-  </si>
-  <si>
     <t>37576МД Бобышка LM Short (собств. разр.) NeoBiotech 3.8 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -441,9 +360,6 @@
     <t>37658МД Бобышка LM Short (собств. разр.) Neodent Grand Morse D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36246МД Бобышка LM (собств. разр.) Niko 3.5 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>36346МД Бобышка LM (собств. разр.) Niko 3.5 D=6 мм с позиционером без внутр. резьбы V.4</t>
   </si>
   <si>
@@ -453,9 +369,6 @@
     <t>37579М Бобышка LM Long (собств. разр.) Niko 3.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36247МД Бобышка LM (собств. разр.) Niko 4.5 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37456МД Бобышка LM Short (собств. разр.) Niko 4.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -468,48 +381,30 @@
     <t>37583МД Бобышка LM Long (собств. разр.) Nobel Active 3.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36220МД Бобышка LM (собств. разр.) Nobel Active NP (3.5), Nobel Conical Connection NP (3.5) D=14 мм с позиционером с внутр. резьбой V.7</t>
-  </si>
-  <si>
-    <t>Версия 7</t>
-  </si>
-  <si>
     <t>37558МД Бобышка LM Short (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>37559МД Бобышка LM Long (собств. разр.) Nobel Active NP (3.5) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36221МД Бобышка LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=14 мм с позиционером с внутр. резьбой V.7</t>
-  </si>
-  <si>
     <t>37472МД Бобышка LM Short (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
     <t>37473МД Бобышка LM Long (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=10 мм с позиционером с внутр. резьбой V.1</t>
   </si>
   <si>
-    <t>36200МД Бобышка LM (собств. разр.) Nobel Replace Select 3.5 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37448МД Бобышка LM Short (собств. разр.) Nobel Replace Select 3.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37449МД Бобышка LM Long (собств. разр.) Nobel Replace Select 3.5 D=10 мм с позиционером без внутр. резьбы / БЕЗ ВИНТА V.1</t>
   </si>
   <si>
-    <t>36201МД Бобышка LM (собств. разр.) Nobel Replace Select 4.3 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37466МД Бобышка LM Short (собств. разр.) Nobel Replace Select 4.3 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37467МД Бобышка LM Long (собств. разр.) Nobel Replace Select 4.3 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36202МД Бобышка LM (собств. разр.) Nobel Replace Select 5.0 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37468МД Бобышка LM Short (собств. разр.) Nobel Replace Select 5.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -555,18 +450,12 @@
     <t>37598МД Бобышка LM Short (собств. разр.) Renova RDI (4.5/4.75)  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36252МД Бобышка LM (собств. разр.) Roott D=14 мм с позиционером с внутр. резьбой V.5</t>
-  </si>
-  <si>
     <t>37591МД Бобышка LM Long (собств. разр.) Sic 3.3  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37590МД Бобышка LM Short (собств. разр.) Sic 3.3  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36269МД Бобышка LM (собств. разр.) Sic 4.2 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37593МД Бобышка LM Long (собств. разр.) Sic 4.2  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -579,18 +468,12 @@
     <t>37595МД Бобышка LM Long (собств. разр.) Sky Bredent D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36248МД Бобышка LM (собств. разр.) Straumann Bone Level NC (3.3) D=14 мм с позиционером без внутр. резьбы V.5</t>
-  </si>
-  <si>
     <t>37604МД Бобышка LM Short (собств. разр.) Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37605МД Бобышка LM Long (собств. разр.) Straumann Bone Level NC (3.3) D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36249МД Бобышка LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=14 мм с позиционером без внутр. резьбы V.5</t>
-  </si>
-  <si>
     <t>37606МД Бобышка LM Short (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -603,9 +486,6 @@
     <t>37608МД Бобышка LM Short (собств. разр.) Straumann SynOcta RN (4.8)  D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36205МД Бобышка LM (собств. разр.) Xive 3.0 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37455МД Бобышка LM Long (собств. разр.) Xive 3.0 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -618,18 +498,12 @@
     <t>37619МД Бобышка LM Long (собств. разр.) Xive 3.4 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36207МД Бобышка LM (собств. разр.) Xive 3.8 D=14 мм с позиционером без внутр. резьбы V.4</t>
-  </si>
-  <si>
     <t>37552МД Бобышка LM Short (собств. разр.) Xive 3.8 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
     <t>37553МД Бобышка LM Long (собств. разр.) Xive 3.8 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
-    <t>36208МД Бобышка LM (собств. разр.) Xive 4.5 D=14 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
     <t>37620МД Бобышка LM Short (собств. разр.) Xive 4.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
   </si>
   <si>
@@ -640,9 +514,6 @@
   </si>
   <si>
     <t>37615МД Бобышка LM Long (собств. разр.) Zimmer 3.5 D=10 мм с позиционером без внутр. резьбы V.1</t>
-  </si>
-  <si>
-    <t>36212МД Бобышка LM (собств. разр.) Zimmer 4.5 D=14 мм с позиционером без внутр. резьбы V.5</t>
   </si>
   <si>
     <t>Тип</t>
@@ -1157,27 +1028,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{8FC9DC12-DC07-4DCA-9F5E-216A5AE466CD}"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1804,12 +1655,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B76630-71FF-4EE2-88AB-AB9FFEA67B81}">
-  <dimension ref="A1:V274"/>
+  <dimension ref="A1:V231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,56 +1700,56 @@
     </row>
     <row r="4" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="J4" s="48"/>
       <c r="K4" s="45" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
       <c r="N4" s="48"/>
       <c r="O4" s="45" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="P4" s="49"/>
       <c r="Q4" s="49"/>
       <c r="R4" s="48"/>
       <c r="S4" s="45" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="U4" s="45" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="V4" s="45" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1911,25 +1762,25 @@
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
       <c r="I5" s="45" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="L5" s="48"/>
       <c r="M5" s="45" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="N5" s="48"/>
       <c r="O5" s="45" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="P5" s="48"/>
       <c r="Q5" s="45" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="R5" s="48"/>
       <c r="S5" s="46"/>
@@ -1949,28 +1800,28 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
       <c r="K6" s="43" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="L6" s="43" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="N6" s="43" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="O6" s="43" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="P6" s="43" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
@@ -2205,7 +2056,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -2229,30 +2080,30 @@
       <c r="U15" s="12"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="20"/>
+      <c r="F16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
@@ -2261,25 +2112,25 @@
       <c r="U16" s="12"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="F17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -2298,21 +2149,13 @@
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="19"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="8"/>
@@ -2330,17 +2173,25 @@
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="20"/>
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
@@ -2354,21 +2205,21 @@
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="25" t="s">
+      <c r="E20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="20"/>
+      <c r="F20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="8"/>
@@ -2386,21 +2237,13 @@
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
-      <c r="E21" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="8"/>
@@ -2418,25 +2261,25 @@
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="19"/>
+      <c r="E22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
@@ -2450,13 +2293,21 @@
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="20"/>
+      <c r="E23" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="8"/>
@@ -2474,25 +2325,25 @@
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="20"/>
+      <c r="F24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
@@ -2506,21 +2357,13 @@
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
       <c r="D25" s="44"/>
-      <c r="E25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="8"/>
@@ -2538,21 +2381,21 @@
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
-      <c r="E26" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="19"/>
+      <c r="E26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="8"/>
@@ -2570,17 +2413,25 @@
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="20"/>
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -2589,30 +2440,30 @@
       <c r="U27" s="12"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="44"/>
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
       <c r="D28" s="44"/>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="30"/>
+      <c r="F28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
@@ -2621,30 +2472,22 @@
       <c r="U28" s="12"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="D29" s="44"/>
-      <c r="E29" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -2653,30 +2496,30 @@
       <c r="U29" s="12"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
-      <c r="E30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
+      <c r="E30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -2685,30 +2528,30 @@
       <c r="U30" s="12"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="44"/>
-      <c r="E31" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
+      <c r="E31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -2717,22 +2560,30 @@
       <c r="U31" s="12"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="20"/>
+      <c r="E32" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -2741,26 +2592,18 @@
       <c r="U32" s="12"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
-      <c r="E33" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="8"/>
@@ -2773,26 +2616,26 @@
       <c r="U33" s="12"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
-      <c r="E34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="20"/>
+      <c r="E34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="8"/>
@@ -2805,25 +2648,25 @@
       <c r="U34" s="12"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
-      <c r="E35" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="E35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="19"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -2842,21 +2685,13 @@
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
-      <c r="E36" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="19"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="8"/>
@@ -2874,13 +2709,21 @@
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="20"/>
+      <c r="E37" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="8"/>
@@ -2898,21 +2741,21 @@
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
       <c r="D38" s="44"/>
-      <c r="E38" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="30"/>
+      <c r="E38" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="8"/>
@@ -2925,26 +2768,18 @@
       <c r="U38" s="12"/>
       <c r="V38" s="13"/>
     </row>
-    <row r="39" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
-      <c r="E39" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="8"/>
@@ -2957,25 +2792,25 @@
       <c r="U39" s="12"/>
       <c r="V39" s="13"/>
     </row>
-    <row r="40" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>
-      <c r="E40" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="24"/>
+      <c r="E40" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="19"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
@@ -2994,13 +2829,21 @@
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
       <c r="D41" s="44"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="20"/>
+      <c r="E41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="8"/>
@@ -3013,26 +2856,18 @@
       <c r="U41" s="12"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
-      <c r="E42" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="8"/>
@@ -3045,25 +2880,25 @@
       <c r="U42" s="12"/>
       <c r="V42" s="13"/>
     </row>
-    <row r="43" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
-      <c r="E43" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="24"/>
+      <c r="E43" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="19"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
@@ -3077,18 +2912,26 @@
       <c r="U43" s="12"/>
       <c r="V43" s="13"/>
     </row>
-    <row r="44" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="20"/>
+      <c r="E44" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="8"/>
@@ -3106,20 +2949,12 @@
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -3139,7 +2974,7 @@
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
       <c r="E46" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>1</v>
@@ -3171,7 +3006,7 @@
       <c r="C47" s="44"/>
       <c r="D47" s="44"/>
       <c r="E47" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>1</v>
@@ -3202,17 +3037,17 @@
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="20"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="30"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
@@ -3227,7 +3062,7 @@
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
       <c r="E49" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>1</v>
@@ -3259,7 +3094,7 @@
       <c r="C50" s="44"/>
       <c r="D50" s="44"/>
       <c r="E50" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>1</v>
@@ -3285,7 +3120,7 @@
       <c r="U50" s="12"/>
       <c r="V50" s="13"/>
     </row>
-    <row r="51" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -3309,30 +3144,24 @@
       <c r="U51" s="12"/>
       <c r="V51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
-      <c r="E52" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="20"/>
+      <c r="E52" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="O52" s="9"/>
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
@@ -3341,30 +3170,24 @@
       <c r="U52" s="12"/>
       <c r="V52" s="13"/>
     </row>
-    <row r="53" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
+      <c r="E53" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
@@ -3378,25 +3201,17 @@
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="19"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="30"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -3410,13 +3225,21 @@
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="30"/>
+      <c r="E55" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="8"/>
@@ -3434,21 +3257,21 @@
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
-      <c r="E56" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="20"/>
+      <c r="E56" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="8"/>
@@ -3461,30 +3284,22 @@
       <c r="U56" s="12"/>
       <c r="V56" s="13"/>
     </row>
-    <row r="57" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
-      <c r="E57" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
@@ -3493,25 +3308,25 @@
       <c r="U57" s="12"/>
       <c r="V57" s="13"/>
     </row>
-    <row r="58" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
-      <c r="E58" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
+      <c r="E58" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="19"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
@@ -3525,18 +3340,26 @@
       <c r="U58" s="12"/>
       <c r="V58" s="13"/>
     </row>
-    <row r="59" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="20"/>
+      <c r="E59" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="8"/>
@@ -3554,25 +3377,17 @@
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
-      <c r="E60" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
@@ -3586,15 +3401,21 @@
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
-      <c r="E61" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="E61" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="18"/>
-      <c r="K61" s="30"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="8"/>
@@ -3612,19 +3433,25 @@
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
-      <c r="E62" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="E62" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="I62" s="23"/>
       <c r="J62" s="24"/>
-      <c r="K62" s="30"/>
+      <c r="K62" s="19"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="8"/>
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
@@ -3633,22 +3460,22 @@
       <c r="U62" s="12"/>
       <c r="V62" s="13"/>
     </row>
-    <row r="63" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="30"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="20"/>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="8"/>
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
@@ -3657,26 +3484,20 @@
       <c r="U63" s="12"/>
       <c r="V63" s="13"/>
     </row>
-    <row r="64" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
-      <c r="E64" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="30"/>
+      <c r="E64" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="37"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="8"/>
@@ -3689,30 +3510,24 @@
       <c r="U64" s="12"/>
       <c r="V64" s="13"/>
     </row>
-    <row r="65" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
-      <c r="E65" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
+      <c r="E65" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="37"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="9"/>
+      <c r="O65" s="8"/>
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
@@ -3721,30 +3536,22 @@
       <c r="U65" s="12"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
-      <c r="E66" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G66" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="19"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="30"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
+      <c r="O66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
@@ -3758,17 +3565,17 @@
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="20"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="30"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="8"/>
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
@@ -3783,7 +3590,7 @@
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
       <c r="E68" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>1</v>
@@ -3815,17 +3622,11 @@
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
       <c r="E69" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="23"/>
       <c r="J69" s="24"/>
       <c r="K69" s="19"/>
@@ -3841,17 +3642,17 @@
       <c r="U69" s="12"/>
       <c r="V69" s="13"/>
     </row>
-    <row r="70" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
       <c r="K70" s="20"/>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
@@ -3865,26 +3666,20 @@
       <c r="U70" s="12"/>
       <c r="V70" s="13"/>
     </row>
-    <row r="71" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="30"/>
+      <c r="E71" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="19"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="8"/>
@@ -3897,30 +3692,24 @@
       <c r="U71" s="12"/>
       <c r="V71" s="13"/>
     </row>
-    <row r="72" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G72" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="18"/>
+      <c r="E72" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="19"/>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
@@ -3934,21 +3723,13 @@
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
-      <c r="E73" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="19"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
       <c r="N73" s="8"/>
@@ -3966,13 +3747,15 @@
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="20"/>
+      <c r="E74" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="19"/>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="8"/>
@@ -3990,21 +3773,15 @@
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
-      <c r="E75" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G75" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
+      <c r="E75" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="19"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="8"/>
@@ -4017,20 +3794,18 @@
       <c r="U75" s="12"/>
       <c r="V75" s="13"/>
     </row>
-    <row r="76" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
-      <c r="E76" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="37"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
       <c r="L76" s="20"/>
       <c r="M76" s="20"/>
       <c r="N76" s="8"/>
@@ -4043,20 +3818,26 @@
       <c r="U76" s="12"/>
       <c r="V76" s="13"/>
     </row>
-    <row r="77" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
-      <c r="E77" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="37"/>
+      <c r="E77" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
       <c r="L77" s="20"/>
       <c r="M77" s="20"/>
       <c r="N77" s="8"/>
@@ -4069,18 +3850,26 @@
       <c r="U77" s="12"/>
       <c r="V77" s="13"/>
     </row>
-    <row r="78" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="30"/>
+      <c r="E78" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I78" s="23"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="19"/>
       <c r="L78" s="20"/>
       <c r="M78" s="20"/>
       <c r="N78" s="8"/>
@@ -4093,26 +3882,18 @@
       <c r="U78" s="12"/>
       <c r="V78" s="13"/>
     </row>
-    <row r="79" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
-      <c r="E79" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H79" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="30"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="20"/>
       <c r="L79" s="20"/>
       <c r="M79" s="20"/>
       <c r="N79" s="8"/>
@@ -4125,18 +3906,26 @@
       <c r="U79" s="12"/>
       <c r="V79" s="13"/>
     </row>
-    <row r="80" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="30"/>
+      <c r="E80" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="8"/>
@@ -4149,25 +3938,19 @@
       <c r="U80" s="12"/>
       <c r="V80" s="13"/>
     </row>
-    <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
-      <c r="E81" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="18"/>
+      <c r="E81" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="24"/>
       <c r="K81" s="19"/>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
@@ -4186,15 +3969,13 @@
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
-      <c r="E82" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="19"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
       <c r="N82" s="8"/>
@@ -4207,18 +3988,20 @@
       <c r="U82" s="12"/>
       <c r="V82" s="13"/>
     </row>
-    <row r="83" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
+      <c r="E83" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="37"/>
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
       <c r="N83" s="8"/>
@@ -4231,20 +4014,20 @@
       <c r="U83" s="12"/>
       <c r="V83" s="13"/>
     </row>
-    <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
-      <c r="E84" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="19"/>
+      <c r="E84" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="37"/>
       <c r="L84" s="20"/>
       <c r="M84" s="20"/>
       <c r="N84" s="8"/>
@@ -4262,15 +4045,13 @@
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
-      <c r="E85" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="19"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="30"/>
       <c r="L85" s="20"/>
       <c r="M85" s="20"/>
       <c r="N85" s="8"/>
@@ -4283,18 +4064,20 @@
       <c r="U85" s="12"/>
       <c r="V85" s="13"/>
     </row>
-    <row r="86" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
+      <c r="E86" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
       <c r="L86" s="20"/>
       <c r="M86" s="20"/>
       <c r="N86" s="8"/>
@@ -4307,19 +4090,19 @@
       <c r="U86" s="12"/>
       <c r="V86" s="13"/>
     </row>
-    <row r="87" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
-      <c r="E87" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="18"/>
+      <c r="E87" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="19"/>
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
@@ -4338,15 +4121,13 @@
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
-      <c r="E88" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="19"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
       <c r="N88" s="8"/>
@@ -4364,13 +4145,15 @@
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
+      <c r="E89" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
       <c r="N89" s="8"/>
@@ -4388,21 +4171,15 @@
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
-      <c r="E90" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F90" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H90" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="20"/>
+      <c r="E90" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="19"/>
       <c r="L90" s="20"/>
       <c r="M90" s="20"/>
       <c r="N90" s="8"/>
@@ -4415,26 +4192,18 @@
       <c r="U90" s="12"/>
       <c r="V90" s="13"/>
     </row>
-    <row r="91" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
       <c r="D91" s="44"/>
-      <c r="E91" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="19"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
       <c r="N91" s="8"/>
@@ -4447,25 +4216,19 @@
       <c r="U91" s="12"/>
       <c r="V91" s="13"/>
     </row>
-    <row r="92" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
-      <c r="E92" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="24"/>
+      <c r="E92" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18"/>
       <c r="K92" s="19"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
@@ -4479,18 +4242,20 @@
       <c r="U92" s="12"/>
       <c r="V92" s="13"/>
     </row>
-    <row r="93" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="20"/>
+      <c r="E93" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="19"/>
       <c r="L93" s="20"/>
       <c r="M93" s="20"/>
       <c r="N93" s="8"/>
@@ -4508,20 +4273,12 @@
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
-      <c r="E94" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G94" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H94" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
@@ -4541,7 +4298,7 @@
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
       <c r="E95" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>1</v>
@@ -4572,12 +4329,18 @@
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
-      <c r="E96" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
+      <c r="E96" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="I96" s="23"/>
       <c r="J96" s="24"/>
       <c r="K96" s="19"/>
@@ -4593,22 +4356,22 @@
       <c r="U96" s="12"/>
       <c r="V96" s="13"/>
     </row>
-    <row r="97" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="30"/>
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
+      <c r="O97" s="9"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
@@ -4617,26 +4380,20 @@
       <c r="U97" s="12"/>
       <c r="V97" s="13"/>
     </row>
-    <row r="98" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
-      <c r="E98" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H98" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
+      <c r="E98" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="19"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
       <c r="N98" s="8"/>
@@ -4649,20 +4406,20 @@
       <c r="U98" s="12"/>
       <c r="V98" s="13"/>
     </row>
-    <row r="99" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
-      <c r="E99" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="37"/>
+      <c r="E99" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="19"/>
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
       <c r="N99" s="8"/>
@@ -4680,15 +4437,13 @@
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
-      <c r="E100" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="37"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
       <c r="L100" s="20"/>
       <c r="M100" s="20"/>
       <c r="N100" s="8"/>
@@ -4701,18 +4456,20 @@
       <c r="U100" s="12"/>
       <c r="V100" s="13"/>
     </row>
-    <row r="101" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
       <c r="D101" s="44"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="30"/>
+      <c r="E101" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="19"/>
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
       <c r="N101" s="8"/>
@@ -4725,19 +4482,19 @@
       <c r="U101" s="12"/>
       <c r="V101" s="13"/>
     </row>
-    <row r="102" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
-      <c r="E102" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
+      <c r="E102" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="24"/>
       <c r="K102" s="19"/>
       <c r="L102" s="20"/>
       <c r="M102" s="20"/>
@@ -4756,15 +4513,13 @@
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
-      <c r="E103" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="19"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
       <c r="L103" s="20"/>
       <c r="M103" s="20"/>
       <c r="N103" s="8"/>
@@ -4782,13 +4537,15 @@
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-      <c r="K104" s="20"/>
+      <c r="E104" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="37"/>
       <c r="L104" s="20"/>
       <c r="M104" s="20"/>
       <c r="N104" s="8"/>
@@ -4806,21 +4563,15 @@
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
-      <c r="E105" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F105" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H105" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="20"/>
+      <c r="E105" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="37"/>
       <c r="L105" s="20"/>
       <c r="M105" s="20"/>
       <c r="N105" s="8"/>
@@ -4833,20 +4584,18 @@
       <c r="U105" s="12"/>
       <c r="V105" s="13"/>
     </row>
-    <row r="106" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
-      <c r="E106" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="19"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="30"/>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
       <c r="N106" s="8"/>
@@ -4859,19 +4608,19 @@
       <c r="U106" s="12"/>
       <c r="V106" s="13"/>
     </row>
-    <row r="107" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
-      <c r="E107" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="24"/>
+      <c r="E107" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="18"/>
       <c r="K107" s="19"/>
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
@@ -4890,13 +4639,15 @@
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="29"/>
-      <c r="H108" s="29"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
+      <c r="E108" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="19"/>
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
       <c r="N108" s="8"/>
@@ -4914,15 +4665,13 @@
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
-      <c r="E109" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="19"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="20"/>
       <c r="L109" s="20"/>
       <c r="M109" s="20"/>
       <c r="N109" s="8"/>
@@ -4940,19 +4689,25 @@
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
       <c r="D110" s="44"/>
-      <c r="E110" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="24"/>
-      <c r="K110" s="19"/>
+      <c r="E110" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I110" s="26"/>
+      <c r="J110" s="26"/>
+      <c r="K110" s="30"/>
       <c r="L110" s="20"/>
       <c r="M110" s="20"/>
       <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
+      <c r="O110" s="9"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
@@ -4966,13 +4721,21 @@
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
       <c r="D111" s="44"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
+      <c r="E111" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" s="38"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="39"/>
       <c r="L111" s="20"/>
       <c r="M111" s="20"/>
       <c r="N111" s="8"/>
@@ -4990,89 +4753,81 @@
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
-      <c r="E112" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F112" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G112" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H112" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="30"/>
+      <c r="E112" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" s="31"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="39"/>
       <c r="L112" s="20"/>
       <c r="M112" s="20"/>
       <c r="N112" s="8"/>
-      <c r="O112" s="9"/>
+      <c r="O112" s="14"/>
       <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
+      <c r="Q112" s="14"/>
       <c r="R112" s="8"/>
       <c r="S112" s="10"/>
       <c r="T112" s="11"/>
       <c r="U112" s="12"/>
       <c r="V112" s="13"/>
     </row>
-    <row r="113" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
       <c r="D113" s="44"/>
-      <c r="E113" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="19"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="42"/>
       <c r="L113" s="20"/>
       <c r="M113" s="20"/>
       <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
+      <c r="O113" s="14"/>
       <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
+      <c r="Q113" s="14"/>
       <c r="R113" s="8"/>
       <c r="S113" s="10"/>
       <c r="T113" s="11"/>
       <c r="U113" s="12"/>
       <c r="V113" s="13"/>
     </row>
-    <row r="114" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
-      <c r="E114" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G114" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H114" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="24"/>
+      <c r="E114" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" s="17"/>
+      <c r="J114" s="18"/>
       <c r="K114" s="19"/>
       <c r="L114" s="20"/>
       <c r="M114" s="20"/>
       <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
+      <c r="O114" s="9"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
@@ -5086,17 +4841,25 @@
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="30"/>
+      <c r="E115" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" s="31"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="39"/>
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
       <c r="N115" s="8"/>
-      <c r="O115" s="9"/>
+      <c r="O115" s="8"/>
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
@@ -5105,20 +4868,18 @@
       <c r="U115" s="12"/>
       <c r="V115" s="13"/>
     </row>
-    <row r="116" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
-      <c r="E116" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="19"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="42"/>
       <c r="L116" s="20"/>
       <c r="M116" s="20"/>
       <c r="N116" s="8"/>
@@ -5131,19 +4892,25 @@
       <c r="U116" s="12"/>
       <c r="V116" s="13"/>
     </row>
-    <row r="117" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
-      <c r="E117" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="24"/>
+      <c r="E117" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I117" s="17"/>
+      <c r="J117" s="18"/>
       <c r="K117" s="19"/>
       <c r="L117" s="20"/>
       <c r="M117" s="20"/>
@@ -5162,13 +4929,21 @@
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
+      <c r="E118" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" s="23"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="19"/>
       <c r="L118" s="20"/>
       <c r="M118" s="20"/>
       <c r="N118" s="8"/>
@@ -5186,15 +4961,13 @@
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
-      <c r="E119" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="19"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="20"/>
       <c r="L119" s="20"/>
       <c r="M119" s="20"/>
       <c r="N119" s="8"/>
@@ -5207,24 +4980,30 @@
       <c r="U119" s="12"/>
       <c r="V119" s="13"/>
     </row>
-    <row r="120" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
       <c r="D120" s="44"/>
-      <c r="E120" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="24"/>
-      <c r="K120" s="19"/>
+      <c r="E120" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="20"/>
       <c r="L120" s="20"/>
       <c r="M120" s="20"/>
       <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
+      <c r="O120" s="9"/>
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
@@ -5238,17 +5017,25 @@
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
       <c r="D121" s="44"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
+      <c r="E121" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>2</v>
+      </c>
       <c r="I121" s="20"/>
       <c r="J121" s="20"/>
       <c r="K121" s="20"/>
       <c r="L121" s="20"/>
       <c r="M121" s="20"/>
       <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
+      <c r="O121" s="9"/>
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
@@ -5262,20 +5049,20 @@
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
-      <c r="E122" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F122" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G122" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H122" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
+      <c r="E122" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
       <c r="K122" s="20"/>
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
@@ -5294,15 +5081,21 @@
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
-      <c r="E123" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
+      <c r="E123" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>2</v>
+      </c>
       <c r="I123" s="17"/>
       <c r="J123" s="18"/>
-      <c r="K123" s="37"/>
+      <c r="K123" s="19"/>
       <c r="L123" s="20"/>
       <c r="M123" s="20"/>
       <c r="N123" s="8"/>
@@ -5320,15 +5113,21 @@
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
-      <c r="E124" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
+      <c r="E124" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>2</v>
+      </c>
       <c r="I124" s="23"/>
       <c r="J124" s="24"/>
-      <c r="K124" s="37"/>
+      <c r="K124" s="19"/>
       <c r="L124" s="20"/>
       <c r="M124" s="20"/>
       <c r="N124" s="8"/>
@@ -5341,18 +5140,18 @@
       <c r="U124" s="12"/>
       <c r="V124" s="13"/>
     </row>
-    <row r="125" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
-      <c r="E125" s="29"/>
-      <c r="F125" s="29"/>
-      <c r="G125" s="29"/>
-      <c r="H125" s="29"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="30"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="20"/>
       <c r="L125" s="20"/>
       <c r="M125" s="20"/>
       <c r="N125" s="8"/>
@@ -5370,19 +5169,25 @@
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
-      <c r="E126" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="19"/>
+      <c r="E126" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I126" s="20"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
       <c r="L126" s="20"/>
       <c r="M126" s="20"/>
       <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
+      <c r="O126" s="9"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
@@ -5396,15 +5201,21 @@
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
-      <c r="E127" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="19"/>
+      <c r="E127" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H127" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="20"/>
       <c r="L127" s="20"/>
       <c r="M127" s="20"/>
       <c r="N127" s="8"/>
@@ -5422,13 +5233,21 @@
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="29"/>
-      <c r="G128" s="29"/>
-      <c r="H128" s="29"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
+      <c r="E128" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H128" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I128" s="17"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="19"/>
       <c r="L128" s="20"/>
       <c r="M128" s="20"/>
       <c r="N128" s="8"/>
@@ -5446,25 +5265,25 @@
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
-      <c r="E129" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H129" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="30"/>
+      <c r="E129" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I129" s="23"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="19"/>
       <c r="L129" s="20"/>
       <c r="M129" s="20"/>
       <c r="N129" s="8"/>
-      <c r="O129" s="9"/>
+      <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
@@ -5478,25 +5297,25 @@
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
-      <c r="E130" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F130" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I130" s="38"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="39"/>
+      <c r="E130" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H130" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="20"/>
       <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
+      <c r="O130" s="9"/>
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
@@ -5510,81 +5329,81 @@
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
       <c r="D131" s="44"/>
-      <c r="E131" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F131" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H131" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I131" s="31"/>
-      <c r="J131" s="40"/>
-      <c r="K131" s="39"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
       <c r="L131" s="20"/>
       <c r="M131" s="20"/>
       <c r="N131" s="8"/>
-      <c r="O131" s="14"/>
+      <c r="O131" s="9"/>
       <c r="P131" s="8"/>
-      <c r="Q131" s="14"/>
+      <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
       <c r="S131" s="10"/>
       <c r="T131" s="11"/>
       <c r="U131" s="12"/>
       <c r="V131" s="13"/>
     </row>
-    <row r="132" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="42"/>
+      <c r="E132" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="19"/>
       <c r="L132" s="20"/>
       <c r="M132" s="20"/>
       <c r="N132" s="8"/>
-      <c r="O132" s="14"/>
+      <c r="O132" s="8"/>
       <c r="P132" s="8"/>
-      <c r="Q132" s="14"/>
+      <c r="Q132" s="8"/>
       <c r="R132" s="8"/>
       <c r="S132" s="10"/>
       <c r="T132" s="11"/>
       <c r="U132" s="12"/>
       <c r="V132" s="13"/>
     </row>
-    <row r="133" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
-      <c r="E133" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G133" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H133" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="18"/>
+      <c r="E133" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I133" s="23"/>
+      <c r="J133" s="24"/>
       <c r="K133" s="19"/>
       <c r="L133" s="20"/>
       <c r="M133" s="20"/>
       <c r="N133" s="8"/>
-      <c r="O133" s="9"/>
+      <c r="O133" s="8"/>
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
       <c r="R133" s="8"/>
@@ -5593,26 +5412,18 @@
       <c r="U133" s="12"/>
       <c r="V133" s="13"/>
     </row>
-    <row r="134" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
-      <c r="E134" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G134" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H134" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I134" s="31"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="39"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="20"/>
       <c r="L134" s="20"/>
       <c r="M134" s="20"/>
       <c r="N134" s="8"/>
@@ -5625,22 +5436,30 @@
       <c r="U134" s="12"/>
       <c r="V134" s="13"/>
     </row>
-    <row r="135" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="32"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="42"/>
+      <c r="E135" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H135" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="26"/>
+      <c r="J135" s="26"/>
+      <c r="K135" s="20"/>
       <c r="L135" s="20"/>
       <c r="M135" s="20"/>
       <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
+      <c r="O135" s="9"/>
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
       <c r="R135" s="8"/>
@@ -5649,30 +5468,30 @@
       <c r="U135" s="12"/>
       <c r="V135" s="13"/>
     </row>
-    <row r="136" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
-      <c r="E136" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G136" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H136" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="20"/>
+      <c r="E136" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I136" s="17"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="19"/>
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
       <c r="N136" s="8"/>
-      <c r="O136" s="9"/>
+      <c r="O136" s="8"/>
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
       <c r="R136" s="8"/>
@@ -5681,26 +5500,26 @@
       <c r="U136" s="12"/>
       <c r="V136" s="13"/>
     </row>
-    <row r="137" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
-      <c r="E137" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H137" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I137" s="17"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="19"/>
+      <c r="E137" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I137" s="31"/>
+      <c r="J137" s="24"/>
+      <c r="K137" s="39"/>
       <c r="L137" s="20"/>
       <c r="M137" s="20"/>
       <c r="N137" s="8"/>
@@ -5718,21 +5537,13 @@
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
-      <c r="E138" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F138" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H138" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I138" s="23"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="19"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="42"/>
       <c r="L138" s="20"/>
       <c r="M138" s="20"/>
       <c r="N138" s="8"/>
@@ -5750,13 +5561,21 @@
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="20"/>
+      <c r="E139" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H139" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I139" s="17"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="19"/>
       <c r="L139" s="20"/>
       <c r="M139" s="20"/>
       <c r="N139" s="8"/>
@@ -5769,30 +5588,30 @@
       <c r="U139" s="12"/>
       <c r="V139" s="13"/>
     </row>
-    <row r="140" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
-      <c r="E140" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F140" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G140" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H140" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I140" s="20"/>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
+      <c r="E140" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I140" s="23"/>
+      <c r="J140" s="24"/>
+      <c r="K140" s="19"/>
       <c r="L140" s="20"/>
       <c r="M140" s="20"/>
       <c r="N140" s="8"/>
-      <c r="O140" s="9"/>
+      <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
       <c r="R140" s="8"/>
@@ -5801,30 +5620,22 @@
       <c r="U140" s="12"/>
       <c r="V140" s="13"/>
     </row>
-    <row r="141" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
       <c r="D141" s="44"/>
-      <c r="E141" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F141" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G141" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H141" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27"/>
+      <c r="G141" s="27"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
       <c r="K141" s="20"/>
       <c r="L141" s="20"/>
       <c r="M141" s="20"/>
       <c r="N141" s="8"/>
-      <c r="O141" s="9"/>
+      <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
       <c r="R141" s="8"/>
@@ -5838,21 +5649,21 @@
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
-      <c r="E142" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="F142" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G142" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H142" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="20"/>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
+      <c r="E142" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" s="17"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="19"/>
       <c r="L142" s="20"/>
       <c r="M142" s="20"/>
       <c r="N142" s="8"/>
@@ -5870,21 +5681,21 @@
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
-      <c r="E143" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G143" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H143" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="20"/>
+      <c r="E143" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" s="31"/>
+      <c r="J143" s="24"/>
+      <c r="K143" s="39"/>
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
       <c r="N143" s="8"/>
@@ -5902,21 +5713,13 @@
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
-      <c r="E144" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F144" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G144" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H144" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="19"/>
+      <c r="E144" s="27"/>
+      <c r="F144" s="27"/>
+      <c r="G144" s="27"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="42"/>
       <c r="L144" s="20"/>
       <c r="M144" s="20"/>
       <c r="N144" s="8"/>
@@ -5934,21 +5737,21 @@
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
-      <c r="E145" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F145" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H145" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I145" s="23"/>
-      <c r="J145" s="24"/>
-      <c r="K145" s="19"/>
+      <c r="E145" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H145" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="20"/>
       <c r="L145" s="20"/>
       <c r="M145" s="20"/>
       <c r="N145" s="8"/>
@@ -5966,13 +5769,21 @@
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="20"/>
+      <c r="E146" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H146" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" s="17"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="19"/>
       <c r="L146" s="20"/>
       <c r="M146" s="20"/>
       <c r="N146" s="8"/>
@@ -5985,30 +5796,30 @@
       <c r="U146" s="12"/>
       <c r="V146" s="13"/>
     </row>
-    <row r="147" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
-      <c r="E147" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G147" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H147" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
+      <c r="E147" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H147" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" s="23"/>
+      <c r="J147" s="24"/>
+      <c r="K147" s="19"/>
       <c r="L147" s="20"/>
       <c r="M147" s="20"/>
       <c r="N147" s="8"/>
-      <c r="O147" s="9"/>
+      <c r="O147" s="8"/>
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
       <c r="R147" s="8"/>
@@ -6022,25 +5833,17 @@
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
-      <c r="E148" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F148" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G148" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H148" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I148" s="20"/>
-      <c r="J148" s="20"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="27"/>
+      <c r="G148" s="27"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
       <c r="M148" s="20"/>
       <c r="N148" s="8"/>
-      <c r="O148" s="9"/>
+      <c r="O148" s="8"/>
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
       <c r="R148" s="8"/>
@@ -6055,7 +5858,7 @@
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
       <c r="E149" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F149" s="29" t="s">
         <v>1</v>
@@ -6064,15 +5867,15 @@
         <v>1</v>
       </c>
       <c r="H149" s="29" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I149" s="20"/>
       <c r="J149" s="20"/>
-      <c r="K149" s="30"/>
+      <c r="K149" s="20"/>
       <c r="L149" s="20"/>
       <c r="M149" s="20"/>
       <c r="N149" s="8"/>
-      <c r="O149" s="9"/>
+      <c r="O149" s="8"/>
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
       <c r="R149" s="8"/>
@@ -6086,20 +5889,12 @@
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
       <c r="D150" s="44"/>
-      <c r="E150" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G150" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I150" s="26"/>
-      <c r="J150" s="26"/>
+      <c r="E150" s="29"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="20"/>
       <c r="K150" s="20"/>
       <c r="L150" s="20"/>
       <c r="M150" s="20"/>
@@ -6119,7 +5914,7 @@
       <c r="C151" s="44"/>
       <c r="D151" s="44"/>
       <c r="E151" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>1</v>
@@ -6151,7 +5946,7 @@
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
       <c r="E152" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F152" s="22" t="s">
         <v>1</v>
@@ -6177,30 +5972,22 @@
       <c r="U152" s="12"/>
       <c r="V152" s="13"/>
     </row>
-    <row r="153" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
       <c r="D153" s="44"/>
-      <c r="E153" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F153" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H153" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33"/>
+      <c r="I153" s="34"/>
+      <c r="J153" s="34"/>
       <c r="K153" s="20"/>
       <c r="L153" s="20"/>
       <c r="M153" s="20"/>
       <c r="N153" s="8"/>
-      <c r="O153" s="9"/>
+      <c r="O153" s="8"/>
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
       <c r="R153" s="8"/>
@@ -6214,17 +6001,25 @@
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
       <c r="D154" s="44"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
+      <c r="E154" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G154" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H154" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I154" s="17"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="19"/>
       <c r="L154" s="20"/>
       <c r="M154" s="20"/>
       <c r="N154" s="8"/>
-      <c r="O154" s="9"/>
+      <c r="O154" s="8"/>
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
       <c r="R154" s="8"/>
@@ -6238,21 +6033,21 @@
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
-      <c r="E155" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F155" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G155" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H155" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I155" s="26"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="20"/>
+      <c r="E155" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I155" s="23"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="19"/>
       <c r="L155" s="20"/>
       <c r="M155" s="20"/>
       <c r="N155" s="8"/>
@@ -6270,21 +6065,13 @@
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
-      <c r="E156" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G156" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H156" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I156" s="17"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="19"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="28"/>
+      <c r="J156" s="28"/>
+      <c r="K156" s="20"/>
       <c r="L156" s="20"/>
       <c r="M156" s="20"/>
       <c r="N156" s="8"/>
@@ -6302,21 +6089,21 @@
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
-      <c r="E157" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H157" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I157" s="23"/>
-      <c r="J157" s="24"/>
-      <c r="K157" s="19"/>
+      <c r="E157" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F157" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H157" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="20"/>
       <c r="L157" s="20"/>
       <c r="M157" s="20"/>
       <c r="N157" s="8"/>
@@ -6334,13 +6121,21 @@
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="20"/>
+      <c r="E158" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H158" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I158" s="17"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="19"/>
       <c r="L158" s="20"/>
       <c r="M158" s="20"/>
       <c r="N158" s="8"/>
@@ -6358,25 +6153,25 @@
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
       <c r="D159" s="44"/>
-      <c r="E159" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F159" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G159" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H159" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I159" s="26"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="20"/>
+      <c r="E159" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I159" s="23"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="19"/>
       <c r="L159" s="20"/>
       <c r="M159" s="20"/>
       <c r="N159" s="8"/>
-      <c r="O159" s="9"/>
+      <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
       <c r="R159" s="8"/>
@@ -6385,26 +6180,18 @@
       <c r="U159" s="12"/>
       <c r="V159" s="13"/>
     </row>
-    <row r="160" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
       <c r="D160" s="44"/>
-      <c r="E160" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H160" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="19"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="28"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="20"/>
       <c r="L160" s="20"/>
       <c r="M160" s="20"/>
       <c r="N160" s="8"/>
@@ -6417,26 +6204,26 @@
       <c r="U160" s="12"/>
       <c r="V160" s="13"/>
     </row>
-    <row r="161" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
       <c r="D161" s="44"/>
-      <c r="E161" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G161" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H161" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I161" s="31"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="39"/>
+      <c r="E161" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H161" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="19"/>
       <c r="L161" s="20"/>
       <c r="M161" s="20"/>
       <c r="N161" s="8"/>
@@ -6449,18 +6236,26 @@
       <c r="U161" s="12"/>
       <c r="V161" s="13"/>
     </row>
-    <row r="162" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
       <c r="D162" s="44"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="32"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="42"/>
+      <c r="E162" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H162" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I162" s="23"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="19"/>
       <c r="L162" s="20"/>
       <c r="M162" s="20"/>
       <c r="N162" s="8"/>
@@ -6478,25 +6273,17 @@
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
       <c r="D163" s="44"/>
-      <c r="E163" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F163" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G163" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H163" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I163" s="26"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="30"/>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33"/>
+      <c r="I163" s="34"/>
+      <c r="J163" s="34"/>
+      <c r="K163" s="20"/>
       <c r="L163" s="20"/>
       <c r="M163" s="20"/>
       <c r="N163" s="8"/>
-      <c r="O163" s="9"/>
+      <c r="O163" s="8"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
       <c r="R163" s="8"/>
@@ -6511,7 +6298,7 @@
       <c r="C164" s="44"/>
       <c r="D164" s="44"/>
       <c r="E164" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F164" s="16" t="s">
         <v>1</v>
@@ -6543,7 +6330,7 @@
       <c r="C165" s="44"/>
       <c r="D165" s="44"/>
       <c r="E165" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F165" s="22" t="s">
         <v>1</v>
@@ -6569,7 +6356,7 @@
       <c r="U165" s="12"/>
       <c r="V165" s="13"/>
     </row>
-    <row r="166" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -6593,26 +6380,26 @@
       <c r="U166" s="12"/>
       <c r="V166" s="13"/>
     </row>
-    <row r="167" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
-      <c r="E167" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="F167" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G167" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H167" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="26"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="20"/>
+      <c r="E167" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H167" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I167" s="17"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="19"/>
       <c r="L167" s="20"/>
       <c r="M167" s="20"/>
       <c r="N167" s="8"/>
@@ -6625,25 +6412,25 @@
       <c r="U167" s="12"/>
       <c r="V167" s="13"/>
     </row>
-    <row r="168" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
       <c r="D168" s="44"/>
-      <c r="E168" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F168" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H168" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I168" s="17"/>
-      <c r="J168" s="18"/>
+      <c r="E168" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H168" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" s="23"/>
+      <c r="J168" s="24"/>
       <c r="K168" s="19"/>
       <c r="L168" s="20"/>
       <c r="M168" s="20"/>
@@ -6662,21 +6449,13 @@
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
       <c r="D169" s="44"/>
-      <c r="E169" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G169" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H169" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I169" s="31"/>
-      <c r="J169" s="24"/>
-      <c r="K169" s="39"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="28"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="20"/>
       <c r="L169" s="20"/>
       <c r="M169" s="20"/>
       <c r="N169" s="8"/>
@@ -6694,13 +6473,21 @@
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
       <c r="D170" s="44"/>
-      <c r="E170" s="27"/>
-      <c r="F170" s="27"/>
-      <c r="G170" s="27"/>
-      <c r="H170" s="27"/>
-      <c r="I170" s="32"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="42"/>
+      <c r="E170" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I170" s="17"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="19"/>
       <c r="L170" s="20"/>
       <c r="M170" s="20"/>
       <c r="N170" s="8"/>
@@ -6718,21 +6505,21 @@
       <c r="B171" s="44"/>
       <c r="C171" s="44"/>
       <c r="D171" s="44"/>
-      <c r="E171" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="F171" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G171" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H171" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="20"/>
+      <c r="E171" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F171" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" s="23"/>
+      <c r="J171" s="24"/>
+      <c r="K171" s="19"/>
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
       <c r="N171" s="8"/>
@@ -6745,26 +6532,18 @@
       <c r="U171" s="12"/>
       <c r="V171" s="13"/>
     </row>
-    <row r="172" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="44"/>
       <c r="B172" s="44"/>
       <c r="C172" s="44"/>
       <c r="D172" s="44"/>
-      <c r="E172" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F172" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G172" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H172" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I172" s="17"/>
-      <c r="J172" s="18"/>
-      <c r="K172" s="19"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="20"/>
       <c r="L172" s="20"/>
       <c r="M172" s="20"/>
       <c r="N172" s="8"/>
@@ -6777,30 +6556,30 @@
       <c r="U172" s="12"/>
       <c r="V172" s="13"/>
     </row>
-    <row r="173" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44"/>
       <c r="B173" s="44"/>
       <c r="C173" s="44"/>
       <c r="D173" s="44"/>
-      <c r="E173" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F173" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G173" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H173" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I173" s="23"/>
-      <c r="J173" s="24"/>
+      <c r="E173" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I173" s="17"/>
+      <c r="J173" s="18"/>
       <c r="K173" s="19"/>
       <c r="L173" s="20"/>
       <c r="M173" s="20"/>
       <c r="N173" s="8"/>
-      <c r="O173" s="8"/>
+      <c r="O173" s="9"/>
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
       <c r="R173" s="8"/>
@@ -6809,18 +6588,26 @@
       <c r="U173" s="12"/>
       <c r="V173" s="13"/>
     </row>
-    <row r="174" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="44"/>
       <c r="B174" s="44"/>
       <c r="C174" s="44"/>
       <c r="D174" s="44"/>
-      <c r="E174" s="27"/>
-      <c r="F174" s="27"/>
-      <c r="G174" s="27"/>
-      <c r="H174" s="27"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="20"/>
+      <c r="E174" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F174" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G174" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H174" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" s="23"/>
+      <c r="J174" s="24"/>
+      <c r="K174" s="19"/>
       <c r="L174" s="20"/>
       <c r="M174" s="20"/>
       <c r="N174" s="8"/>
@@ -6833,25 +6620,17 @@
       <c r="U174" s="12"/>
       <c r="V174" s="13"/>
     </row>
-    <row r="175" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="44"/>
       <c r="B175" s="44"/>
       <c r="C175" s="44"/>
       <c r="D175" s="44"/>
-      <c r="E175" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="F175" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G175" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H175" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I175" s="20"/>
-      <c r="J175" s="20"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="28"/>
+      <c r="J175" s="28"/>
       <c r="K175" s="20"/>
       <c r="L175" s="20"/>
       <c r="M175" s="20"/>
@@ -6870,21 +6649,21 @@
       <c r="B176" s="44"/>
       <c r="C176" s="44"/>
       <c r="D176" s="44"/>
-      <c r="E176" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F176" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H176" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="20"/>
+      <c r="E176" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I176" s="17"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="19"/>
       <c r="L176" s="20"/>
       <c r="M176" s="20"/>
       <c r="N176" s="8"/>
@@ -6897,18 +6676,26 @@
       <c r="U176" s="12"/>
       <c r="V176" s="13"/>
     </row>
-    <row r="177" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="44"/>
       <c r="B177" s="44"/>
       <c r="C177" s="44"/>
       <c r="D177" s="44"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="29"/>
-      <c r="G177" s="29"/>
-      <c r="H177" s="29"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="20"/>
+      <c r="E177" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G177" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H177" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I177" s="23"/>
+      <c r="J177" s="24"/>
+      <c r="K177" s="19"/>
       <c r="L177" s="20"/>
       <c r="M177" s="20"/>
       <c r="N177" s="8"/>
@@ -6926,20 +6713,12 @@
       <c r="B178" s="44"/>
       <c r="C178" s="44"/>
       <c r="D178" s="44"/>
-      <c r="E178" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F178" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G178" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H178" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" s="26"/>
-      <c r="J178" s="26"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
       <c r="K178" s="20"/>
       <c r="L178" s="20"/>
       <c r="M178" s="20"/>
@@ -6959,7 +6738,7 @@
       <c r="C179" s="44"/>
       <c r="D179" s="44"/>
       <c r="E179" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F179" s="16" t="s">
         <v>1</v>
@@ -6991,7 +6770,7 @@
       <c r="C180" s="44"/>
       <c r="D180" s="44"/>
       <c r="E180" s="21" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F180" s="22" t="s">
         <v>1</v>
@@ -7017,17 +6796,17 @@
       <c r="U180" s="12"/>
       <c r="V180" s="13"/>
     </row>
-    <row r="181" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="44"/>
       <c r="B181" s="44"/>
       <c r="C181" s="44"/>
       <c r="D181" s="44"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="34"/>
-      <c r="J181" s="34"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="28"/>
       <c r="K181" s="20"/>
       <c r="L181" s="20"/>
       <c r="M181" s="20"/>
@@ -7046,25 +6825,25 @@
       <c r="B182" s="44"/>
       <c r="C182" s="44"/>
       <c r="D182" s="44"/>
-      <c r="E182" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F182" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G182" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H182" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="18"/>
-      <c r="K182" s="19"/>
+      <c r="E182" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G182" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H182" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I182" s="20"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
       <c r="L182" s="20"/>
       <c r="M182" s="20"/>
       <c r="N182" s="8"/>
-      <c r="O182" s="8"/>
+      <c r="O182" s="9"/>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
@@ -7078,21 +6857,21 @@
       <c r="B183" s="44"/>
       <c r="C183" s="44"/>
       <c r="D183" s="44"/>
-      <c r="E183" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F183" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G183" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H183" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I183" s="23"/>
-      <c r="J183" s="24"/>
-      <c r="K183" s="19"/>
+      <c r="E183" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F183" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H183" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" s="26"/>
+      <c r="J183" s="26"/>
+      <c r="K183" s="20"/>
       <c r="L183" s="20"/>
       <c r="M183" s="20"/>
       <c r="N183" s="8"/>
@@ -7110,13 +6889,21 @@
       <c r="B184" s="44"/>
       <c r="C184" s="44"/>
       <c r="D184" s="44"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="20"/>
+      <c r="E184" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G184" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I184" s="17"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="19"/>
       <c r="L184" s="20"/>
       <c r="M184" s="20"/>
       <c r="N184" s="8"/>
@@ -7129,26 +6916,26 @@
       <c r="U184" s="12"/>
       <c r="V184" s="13"/>
     </row>
-    <row r="185" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="44"/>
       <c r="B185" s="44"/>
       <c r="C185" s="44"/>
       <c r="D185" s="44"/>
-      <c r="E185" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F185" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G185" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H185" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I185" s="20"/>
-      <c r="J185" s="20"/>
-      <c r="K185" s="20"/>
+      <c r="E185" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G185" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I185" s="31"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="19"/>
       <c r="L185" s="20"/>
       <c r="M185" s="20"/>
       <c r="N185" s="8"/>
@@ -7161,25 +6948,17 @@
       <c r="U185" s="12"/>
       <c r="V185" s="13"/>
     </row>
-    <row r="186" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="44"/>
       <c r="B186" s="44"/>
       <c r="C186" s="44"/>
       <c r="D186" s="44"/>
-      <c r="E186" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F186" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G186" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H186" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I186" s="26"/>
-      <c r="J186" s="26"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="28"/>
       <c r="K186" s="20"/>
       <c r="L186" s="20"/>
       <c r="M186" s="20"/>
@@ -7198,25 +6977,25 @@
       <c r="B187" s="44"/>
       <c r="C187" s="44"/>
       <c r="D187" s="44"/>
-      <c r="E187" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F187" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G187" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H187" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I187" s="17"/>
-      <c r="J187" s="18"/>
-      <c r="K187" s="19"/>
+      <c r="E187" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H187" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
       <c r="L187" s="20"/>
       <c r="M187" s="20"/>
       <c r="N187" s="8"/>
-      <c r="O187" s="8"/>
+      <c r="O187" s="9"/>
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="8"/>
@@ -7230,21 +7009,21 @@
       <c r="B188" s="44"/>
       <c r="C188" s="44"/>
       <c r="D188" s="44"/>
-      <c r="E188" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F188" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G188" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H188" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I188" s="23"/>
-      <c r="J188" s="24"/>
-      <c r="K188" s="19"/>
+      <c r="E188" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G188" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H188" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
+      <c r="K188" s="20"/>
       <c r="L188" s="20"/>
       <c r="M188" s="20"/>
       <c r="N188" s="8"/>
@@ -7262,13 +7041,21 @@
       <c r="B189" s="44"/>
       <c r="C189" s="44"/>
       <c r="D189" s="44"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="20"/>
+      <c r="E189" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H189" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I189" s="17"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="19"/>
       <c r="L189" s="20"/>
       <c r="M189" s="20"/>
       <c r="N189" s="8"/>
@@ -7286,84 +7073,70 @@
       <c r="B190" s="44"/>
       <c r="C190" s="44"/>
       <c r="D190" s="44"/>
-      <c r="E190" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F190" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G190" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H190" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I190" s="26"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="20"/>
+      <c r="E190" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H190" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I190" s="31"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="39"/>
       <c r="L190" s="20"/>
       <c r="M190" s="20"/>
       <c r="N190" s="8"/>
-      <c r="O190" s="8"/>
+      <c r="O190" s="14"/>
       <c r="P190" s="8"/>
-      <c r="Q190" s="8"/>
+      <c r="Q190" s="14"/>
       <c r="R190" s="8"/>
       <c r="S190" s="10"/>
       <c r="T190" s="11"/>
       <c r="U190" s="12"/>
       <c r="V190" s="13"/>
     </row>
-    <row r="191" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="44"/>
       <c r="B191" s="44"/>
       <c r="C191" s="44"/>
       <c r="D191" s="44"/>
-      <c r="E191" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F191" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G191" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H191" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I191" s="17"/>
-      <c r="J191" s="18"/>
-      <c r="K191" s="19"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="42"/>
       <c r="L191" s="20"/>
       <c r="M191" s="20"/>
       <c r="N191" s="8"/>
-      <c r="O191" s="8"/>
+      <c r="O191" s="14"/>
       <c r="P191" s="8"/>
-      <c r="Q191" s="8"/>
+      <c r="Q191" s="14"/>
       <c r="R191" s="8"/>
       <c r="S191" s="10"/>
       <c r="T191" s="11"/>
       <c r="U191" s="12"/>
       <c r="V191" s="13"/>
     </row>
-    <row r="192" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="44"/>
       <c r="B192" s="44"/>
       <c r="C192" s="44"/>
       <c r="D192" s="44"/>
-      <c r="E192" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F192" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G192" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H192" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I192" s="23"/>
-      <c r="J192" s="24"/>
+      <c r="E192" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="18"/>
       <c r="K192" s="19"/>
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
@@ -7382,13 +7155,15 @@
       <c r="B193" s="44"/>
       <c r="C193" s="44"/>
       <c r="D193" s="44"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="34"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="20"/>
+      <c r="E193" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F193" s="22"/>
+      <c r="G193" s="22"/>
+      <c r="H193" s="22"/>
+      <c r="I193" s="23"/>
+      <c r="J193" s="24"/>
+      <c r="K193" s="19"/>
       <c r="L193" s="20"/>
       <c r="M193" s="20"/>
       <c r="N193" s="8"/>
@@ -7401,26 +7176,18 @@
       <c r="U193" s="12"/>
       <c r="V193" s="13"/>
     </row>
-    <row r="194" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="44"/>
       <c r="B194" s="44"/>
       <c r="C194" s="44"/>
       <c r="D194" s="44"/>
-      <c r="E194" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F194" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G194" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H194" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I194" s="17"/>
-      <c r="J194" s="18"/>
-      <c r="K194" s="19"/>
+      <c r="E194" s="29"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="29"/>
+      <c r="H194" s="29"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="20"/>
       <c r="L194" s="20"/>
       <c r="M194" s="20"/>
       <c r="N194" s="8"/>
@@ -7433,25 +7200,19 @@
       <c r="U194" s="12"/>
       <c r="V194" s="13"/>
     </row>
-    <row r="195" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="44"/>
       <c r="B195" s="44"/>
       <c r="C195" s="44"/>
       <c r="D195" s="44"/>
-      <c r="E195" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F195" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G195" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H195" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I195" s="23"/>
-      <c r="J195" s="24"/>
+      <c r="E195" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="16"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="18"/>
       <c r="K195" s="19"/>
       <c r="L195" s="20"/>
       <c r="M195" s="20"/>
@@ -7465,18 +7226,20 @@
       <c r="U195" s="12"/>
       <c r="V195" s="13"/>
     </row>
-    <row r="196" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="44"/>
       <c r="B196" s="44"/>
       <c r="C196" s="44"/>
       <c r="D196" s="44"/>
-      <c r="E196" s="27"/>
-      <c r="F196" s="27"/>
-      <c r="G196" s="27"/>
-      <c r="H196" s="27"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
-      <c r="K196" s="20"/>
+      <c r="E196" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F196" s="22"/>
+      <c r="G196" s="22"/>
+      <c r="H196" s="22"/>
+      <c r="I196" s="23"/>
+      <c r="J196" s="24"/>
+      <c r="K196" s="19"/>
       <c r="L196" s="20"/>
       <c r="M196" s="20"/>
       <c r="N196" s="8"/>
@@ -7489,26 +7252,18 @@
       <c r="U196" s="12"/>
       <c r="V196" s="13"/>
     </row>
-    <row r="197" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="44"/>
       <c r="B197" s="44"/>
       <c r="C197" s="44"/>
       <c r="D197" s="44"/>
-      <c r="E197" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="F197" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G197" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H197" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="I197" s="26"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="30"/>
+      <c r="E197" s="29"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="29"/>
+      <c r="H197" s="29"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="20"/>
       <c r="L197" s="20"/>
       <c r="M197" s="20"/>
       <c r="N197" s="8"/>
@@ -7521,26 +7276,18 @@
       <c r="U197" s="12"/>
       <c r="V197" s="13"/>
     </row>
-    <row r="198" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="44"/>
       <c r="B198" s="44"/>
       <c r="C198" s="44"/>
       <c r="D198" s="44"/>
-      <c r="E198" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F198" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H198" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I198" s="17"/>
-      <c r="J198" s="18"/>
-      <c r="K198" s="19"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="20"/>
       <c r="L198" s="20"/>
       <c r="M198" s="20"/>
       <c r="N198" s="8"/>
@@ -7553,25 +7300,19 @@
       <c r="U198" s="12"/>
       <c r="V198" s="13"/>
     </row>
-    <row r="199" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="44"/>
       <c r="B199" s="44"/>
       <c r="C199" s="44"/>
       <c r="D199" s="44"/>
-      <c r="E199" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F199" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G199" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H199" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I199" s="23"/>
-      <c r="J199" s="24"/>
+      <c r="E199" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="16"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="18"/>
       <c r="K199" s="19"/>
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
@@ -7585,18 +7326,20 @@
       <c r="U199" s="12"/>
       <c r="V199" s="13"/>
     </row>
-    <row r="200" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="44"/>
       <c r="B200" s="44"/>
       <c r="C200" s="44"/>
       <c r="D200" s="44"/>
-      <c r="E200" s="27"/>
-      <c r="F200" s="27"/>
-      <c r="G200" s="27"/>
-      <c r="H200" s="27"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
-      <c r="K200" s="20"/>
+      <c r="E200" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F200" s="22"/>
+      <c r="G200" s="22"/>
+      <c r="H200" s="22"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="24"/>
+      <c r="K200" s="19"/>
       <c r="L200" s="20"/>
       <c r="M200" s="20"/>
       <c r="N200" s="8"/>
@@ -7614,20 +7357,12 @@
       <c r="B201" s="44"/>
       <c r="C201" s="44"/>
       <c r="D201" s="44"/>
-      <c r="E201" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F201" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G201" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H201" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="I201" s="26"/>
-      <c r="J201" s="26"/>
+      <c r="E201" s="29"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="29"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="20"/>
       <c r="K201" s="20"/>
       <c r="L201" s="20"/>
       <c r="M201" s="20"/>
@@ -7647,17 +7382,11 @@
       <c r="C202" s="44"/>
       <c r="D202" s="44"/>
       <c r="E202" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F202" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G202" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H202" s="16" t="s">
-        <v>2</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F202" s="16"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="16"/>
       <c r="I202" s="17"/>
       <c r="J202" s="18"/>
       <c r="K202" s="19"/>
@@ -7679,17 +7408,11 @@
       <c r="C203" s="44"/>
       <c r="D203" s="44"/>
       <c r="E203" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F203" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G203" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H203" s="22" t="s">
-        <v>2</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F203" s="22"/>
+      <c r="G203" s="22"/>
+      <c r="H203" s="22"/>
       <c r="I203" s="23"/>
       <c r="J203" s="24"/>
       <c r="K203" s="19"/>
@@ -7705,17 +7428,17 @@
       <c r="U203" s="12"/>
       <c r="V203" s="13"/>
     </row>
-    <row r="204" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="44"/>
       <c r="B204" s="44"/>
       <c r="C204" s="44"/>
       <c r="D204" s="44"/>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="28"/>
-      <c r="J204" s="28"/>
+      <c r="E204" s="25"/>
+      <c r="F204" s="25"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="25"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26"/>
       <c r="K204" s="20"/>
       <c r="L204" s="20"/>
       <c r="M204" s="20"/>
@@ -7729,26 +7452,26 @@
       <c r="U204" s="12"/>
       <c r="V204" s="13"/>
     </row>
-    <row r="205" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="44"/>
       <c r="B205" s="44"/>
       <c r="C205" s="44"/>
       <c r="D205" s="44"/>
-      <c r="E205" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="F205" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G205" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H205" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I205" s="26"/>
-      <c r="J205" s="26"/>
-      <c r="K205" s="20"/>
+      <c r="E205" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F205" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H205" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I205" s="17"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="19"/>
       <c r="L205" s="20"/>
       <c r="M205" s="20"/>
       <c r="N205" s="8"/>
@@ -7761,30 +7484,30 @@
       <c r="U205" s="12"/>
       <c r="V205" s="13"/>
     </row>
-    <row r="206" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="44"/>
       <c r="B206" s="44"/>
       <c r="C206" s="44"/>
       <c r="D206" s="44"/>
-      <c r="E206" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F206" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G206" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H206" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I206" s="17"/>
-      <c r="J206" s="18"/>
+      <c r="E206" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F206" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G206" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H206" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I206" s="23"/>
+      <c r="J206" s="24"/>
       <c r="K206" s="19"/>
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
       <c r="N206" s="8"/>
-      <c r="O206" s="9"/>
+      <c r="O206" s="8"/>
       <c r="P206" s="8"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="8"/>
@@ -7798,21 +7521,13 @@
       <c r="B207" s="44"/>
       <c r="C207" s="44"/>
       <c r="D207" s="44"/>
-      <c r="E207" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F207" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G207" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H207" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I207" s="23"/>
-      <c r="J207" s="24"/>
-      <c r="K207" s="19"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="28"/>
+      <c r="J207" s="28"/>
+      <c r="K207" s="20"/>
       <c r="L207" s="20"/>
       <c r="M207" s="20"/>
       <c r="N207" s="8"/>
@@ -7830,13 +7545,21 @@
       <c r="B208" s="44"/>
       <c r="C208" s="44"/>
       <c r="D208" s="44"/>
-      <c r="E208" s="27"/>
-      <c r="F208" s="27"/>
-      <c r="G208" s="27"/>
-      <c r="H208" s="27"/>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
-      <c r="K208" s="20"/>
+      <c r="E208" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F208" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H208" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I208" s="17"/>
+      <c r="J208" s="18"/>
+      <c r="K208" s="19"/>
       <c r="L208" s="20"/>
       <c r="M208" s="20"/>
       <c r="N208" s="8"/>
@@ -7854,21 +7577,21 @@
       <c r="B209" s="44"/>
       <c r="C209" s="44"/>
       <c r="D209" s="44"/>
-      <c r="E209" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F209" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G209" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H209" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I209" s="20"/>
-      <c r="J209" s="20"/>
-      <c r="K209" s="30"/>
+      <c r="E209" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H209" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I209" s="23"/>
+      <c r="J209" s="24"/>
+      <c r="K209" s="19"/>
       <c r="L209" s="20"/>
       <c r="M209" s="20"/>
       <c r="N209" s="8"/>
@@ -7881,26 +7604,18 @@
       <c r="U209" s="12"/>
       <c r="V209" s="13"/>
     </row>
-    <row r="210" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="44"/>
       <c r="B210" s="44"/>
       <c r="C210" s="44"/>
       <c r="D210" s="44"/>
-      <c r="E210" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F210" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G210" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H210" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I210" s="17"/>
-      <c r="J210" s="18"/>
-      <c r="K210" s="19"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="28"/>
+      <c r="J210" s="28"/>
+      <c r="K210" s="20"/>
       <c r="L210" s="20"/>
       <c r="M210" s="20"/>
       <c r="N210" s="8"/>
@@ -7913,25 +7628,25 @@
       <c r="U210" s="12"/>
       <c r="V210" s="13"/>
     </row>
-    <row r="211" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="44"/>
       <c r="B211" s="44"/>
       <c r="C211" s="44"/>
       <c r="D211" s="44"/>
-      <c r="E211" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="F211" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G211" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H211" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I211" s="23"/>
-      <c r="J211" s="24"/>
+      <c r="E211" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F211" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G211" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H211" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I211" s="17"/>
+      <c r="J211" s="18"/>
       <c r="K211" s="19"/>
       <c r="L211" s="20"/>
       <c r="M211" s="20"/>
@@ -7945,18 +7660,26 @@
       <c r="U211" s="12"/>
       <c r="V211" s="13"/>
     </row>
-    <row r="212" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="44"/>
       <c r="B212" s="44"/>
       <c r="C212" s="44"/>
       <c r="D212" s="44"/>
-      <c r="E212" s="27"/>
-      <c r="F212" s="27"/>
-      <c r="G212" s="27"/>
-      <c r="H212" s="27"/>
-      <c r="I212" s="28"/>
-      <c r="J212" s="28"/>
-      <c r="K212" s="20"/>
+      <c r="E212" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G212" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H212" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I212" s="23"/>
+      <c r="J212" s="24"/>
+      <c r="K212" s="19"/>
       <c r="L212" s="20"/>
       <c r="M212" s="20"/>
       <c r="N212" s="8"/>
@@ -7974,21 +7697,13 @@
       <c r="B213" s="44"/>
       <c r="C213" s="44"/>
       <c r="D213" s="44"/>
-      <c r="E213" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F213" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G213" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H213" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I213" s="26"/>
-      <c r="J213" s="26"/>
-      <c r="K213" s="30"/>
+      <c r="E213" s="33"/>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="33"/>
+      <c r="I213" s="34"/>
+      <c r="J213" s="34"/>
+      <c r="K213" s="20"/>
       <c r="L213" s="20"/>
       <c r="M213" s="20"/>
       <c r="N213" s="8"/>
@@ -8007,7 +7722,7 @@
       <c r="C214" s="44"/>
       <c r="D214" s="44"/>
       <c r="E214" s="15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="F214" s="16" t="s">
         <v>1</v>
@@ -8039,17 +7754,11 @@
       <c r="C215" s="44"/>
       <c r="D215" s="44"/>
       <c r="E215" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F215" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G215" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H215" s="22" t="s">
-        <v>2</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F215" s="22"/>
+      <c r="G215" s="22"/>
+      <c r="H215" s="22"/>
       <c r="I215" s="23"/>
       <c r="J215" s="24"/>
       <c r="K215" s="19"/>
@@ -8065,17 +7774,17 @@
       <c r="U215" s="12"/>
       <c r="V215" s="13"/>
     </row>
-    <row r="216" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="44"/>
       <c r="B216" s="44"/>
       <c r="C216" s="44"/>
       <c r="D216" s="44"/>
-      <c r="E216" s="27"/>
-      <c r="F216" s="27"/>
-      <c r="G216" s="27"/>
-      <c r="H216" s="27"/>
-      <c r="I216" s="28"/>
-      <c r="J216" s="28"/>
+      <c r="E216" s="29"/>
+      <c r="F216" s="29"/>
+      <c r="G216" s="29"/>
+      <c r="H216" s="29"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
       <c r="K216" s="20"/>
       <c r="L216" s="20"/>
       <c r="M216" s="20"/>
@@ -8094,25 +7803,19 @@
       <c r="B217" s="44"/>
       <c r="C217" s="44"/>
       <c r="D217" s="44"/>
-      <c r="E217" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="F217" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G217" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H217" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I217" s="20"/>
-      <c r="J217" s="20"/>
-      <c r="K217" s="20"/>
+      <c r="E217" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F217" s="16"/>
+      <c r="G217" s="16"/>
+      <c r="H217" s="16"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="18"/>
+      <c r="K217" s="19"/>
       <c r="L217" s="20"/>
       <c r="M217" s="20"/>
       <c r="N217" s="8"/>
-      <c r="O217" s="9"/>
+      <c r="O217" s="8"/>
       <c r="P217" s="8"/>
       <c r="Q217" s="8"/>
       <c r="R217" s="8"/>
@@ -8126,21 +7829,15 @@
       <c r="B218" s="44"/>
       <c r="C218" s="44"/>
       <c r="D218" s="44"/>
-      <c r="E218" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="F218" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G218" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H218" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I218" s="26"/>
-      <c r="J218" s="26"/>
-      <c r="K218" s="20"/>
+      <c r="E218" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F218" s="22"/>
+      <c r="G218" s="22"/>
+      <c r="H218" s="22"/>
+      <c r="I218" s="23"/>
+      <c r="J218" s="24"/>
+      <c r="K218" s="19"/>
       <c r="L218" s="20"/>
       <c r="M218" s="20"/>
       <c r="N218" s="8"/>
@@ -8153,26 +7850,18 @@
       <c r="U218" s="12"/>
       <c r="V218" s="13"/>
     </row>
-    <row r="219" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="44"/>
       <c r="B219" s="44"/>
       <c r="C219" s="44"/>
       <c r="D219" s="44"/>
-      <c r="E219" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F219" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G219" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H219" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I219" s="17"/>
-      <c r="J219" s="18"/>
-      <c r="K219" s="19"/>
+      <c r="E219" s="25"/>
+      <c r="F219" s="25"/>
+      <c r="G219" s="25"/>
+      <c r="H219" s="25"/>
+      <c r="I219" s="26"/>
+      <c r="J219" s="26"/>
+      <c r="K219" s="20"/>
       <c r="L219" s="20"/>
       <c r="M219" s="20"/>
       <c r="N219" s="8"/>
@@ -8185,25 +7874,25 @@
       <c r="U219" s="12"/>
       <c r="V219" s="13"/>
     </row>
-    <row r="220" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="44"/>
       <c r="B220" s="44"/>
       <c r="C220" s="44"/>
       <c r="D220" s="44"/>
-      <c r="E220" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="F220" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G220" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H220" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I220" s="31"/>
-      <c r="J220" s="24"/>
+      <c r="E220" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G220" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H220" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I220" s="17"/>
+      <c r="J220" s="18"/>
       <c r="K220" s="19"/>
       <c r="L220" s="20"/>
       <c r="M220" s="20"/>
@@ -8217,18 +7906,26 @@
       <c r="U220" s="12"/>
       <c r="V220" s="13"/>
     </row>
-    <row r="221" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="44"/>
       <c r="B221" s="44"/>
       <c r="C221" s="44"/>
       <c r="D221" s="44"/>
-      <c r="E221" s="27"/>
-      <c r="F221" s="27"/>
-      <c r="G221" s="27"/>
-      <c r="H221" s="27"/>
-      <c r="I221" s="32"/>
-      <c r="J221" s="28"/>
-      <c r="K221" s="20"/>
+      <c r="E221" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F221" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H221" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I221" s="23"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="19"/>
       <c r="L221" s="20"/>
       <c r="M221" s="20"/>
       <c r="N221" s="8"/>
@@ -8241,30 +7938,22 @@
       <c r="U221" s="12"/>
       <c r="V221" s="13"/>
     </row>
-    <row r="222" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="44"/>
       <c r="B222" s="44"/>
       <c r="C222" s="44"/>
       <c r="D222" s="44"/>
-      <c r="E222" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F222" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G222" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H222" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="I222" s="20"/>
-      <c r="J222" s="20"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="27"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="28"/>
+      <c r="J222" s="28"/>
       <c r="K222" s="20"/>
       <c r="L222" s="20"/>
       <c r="M222" s="20"/>
       <c r="N222" s="8"/>
-      <c r="O222" s="9"/>
+      <c r="O222" s="8"/>
       <c r="P222" s="8"/>
       <c r="Q222" s="8"/>
       <c r="R222" s="8"/>
@@ -8273,26 +7962,26 @@
       <c r="U222" s="12"/>
       <c r="V222" s="13"/>
     </row>
-    <row r="223" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="44"/>
       <c r="B223" s="44"/>
       <c r="C223" s="44"/>
       <c r="D223" s="44"/>
-      <c r="E223" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="F223" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G223" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H223" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I223" s="26"/>
-      <c r="J223" s="26"/>
-      <c r="K223" s="20"/>
+      <c r="E223" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G223" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H223" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I223" s="17"/>
+      <c r="J223" s="18"/>
+      <c r="K223" s="19"/>
       <c r="L223" s="20"/>
       <c r="M223" s="20"/>
       <c r="N223" s="8"/>
@@ -8305,25 +7994,25 @@
       <c r="U223" s="12"/>
       <c r="V223" s="13"/>
     </row>
-    <row r="224" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="44"/>
       <c r="B224" s="44"/>
       <c r="C224" s="44"/>
       <c r="D224" s="44"/>
-      <c r="E224" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F224" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G224" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H224" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I224" s="17"/>
-      <c r="J224" s="18"/>
+      <c r="E224" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F224" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G224" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H224" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I224" s="23"/>
+      <c r="J224" s="24"/>
       <c r="K224" s="19"/>
       <c r="L224" s="20"/>
       <c r="M224" s="20"/>
@@ -8342,70 +8031,76 @@
       <c r="B225" s="44"/>
       <c r="C225" s="44"/>
       <c r="D225" s="44"/>
-      <c r="E225" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F225" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G225" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H225" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I225" s="31"/>
-      <c r="J225" s="40"/>
-      <c r="K225" s="39"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="28"/>
+      <c r="J225" s="28"/>
+      <c r="K225" s="20"/>
       <c r="L225" s="20"/>
       <c r="M225" s="20"/>
       <c r="N225" s="8"/>
-      <c r="O225" s="14"/>
+      <c r="O225" s="8"/>
       <c r="P225" s="8"/>
-      <c r="Q225" s="14"/>
+      <c r="Q225" s="8"/>
       <c r="R225" s="8"/>
       <c r="S225" s="10"/>
       <c r="T225" s="11"/>
       <c r="U225" s="12"/>
       <c r="V225" s="13"/>
     </row>
-    <row r="226" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="44"/>
       <c r="B226" s="44"/>
       <c r="C226" s="44"/>
       <c r="D226" s="44"/>
-      <c r="E226" s="27"/>
-      <c r="F226" s="27"/>
-      <c r="G226" s="27"/>
-      <c r="H226" s="27"/>
-      <c r="I226" s="32"/>
-      <c r="J226" s="32"/>
-      <c r="K226" s="42"/>
+      <c r="E226" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G226" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H226" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I226" s="17"/>
+      <c r="J226" s="18"/>
+      <c r="K226" s="19"/>
       <c r="L226" s="20"/>
       <c r="M226" s="20"/>
       <c r="N226" s="8"/>
-      <c r="O226" s="14"/>
+      <c r="O226" s="8"/>
       <c r="P226" s="8"/>
-      <c r="Q226" s="14"/>
+      <c r="Q226" s="8"/>
       <c r="R226" s="8"/>
       <c r="S226" s="10"/>
       <c r="T226" s="11"/>
       <c r="U226" s="12"/>
       <c r="V226" s="13"/>
     </row>
-    <row r="227" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="44"/>
       <c r="B227" s="44"/>
       <c r="C227" s="44"/>
       <c r="D227" s="44"/>
-      <c r="E227" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F227" s="16"/>
-      <c r="G227" s="16"/>
-      <c r="H227" s="16"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="18"/>
+      <c r="E227" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G227" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H227" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I227" s="23"/>
+      <c r="J227" s="24"/>
       <c r="K227" s="19"/>
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
@@ -8424,15 +8119,13 @@
       <c r="B228" s="44"/>
       <c r="C228" s="44"/>
       <c r="D228" s="44"/>
-      <c r="E228" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F228" s="22"/>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="23"/>
-      <c r="J228" s="24"/>
-      <c r="K228" s="19"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="34"/>
+      <c r="J228" s="34"/>
+      <c r="K228" s="20"/>
       <c r="L228" s="20"/>
       <c r="M228" s="20"/>
       <c r="N228" s="8"/>
@@ -8445,18 +8138,26 @@
       <c r="U228" s="12"/>
       <c r="V228" s="13"/>
     </row>
-    <row r="229" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="44"/>
       <c r="B229" s="44"/>
       <c r="C229" s="44"/>
       <c r="D229" s="44"/>
-      <c r="E229" s="29"/>
-      <c r="F229" s="29"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="29"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="20"/>
-      <c r="K229" s="20"/>
+      <c r="E229" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G229" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H229" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I229" s="38"/>
+      <c r="J229" s="18"/>
+      <c r="K229" s="39"/>
       <c r="L229" s="20"/>
       <c r="M229" s="20"/>
       <c r="N229" s="8"/>
@@ -8469,19 +8170,25 @@
       <c r="U229" s="12"/>
       <c r="V229" s="13"/>
     </row>
-    <row r="230" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="44"/>
       <c r="B230" s="44"/>
       <c r="C230" s="44"/>
       <c r="D230" s="44"/>
-      <c r="E230" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F230" s="16"/>
-      <c r="G230" s="16"/>
-      <c r="H230" s="16"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="18"/>
+      <c r="E230" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F230" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G230" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H230" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I230" s="23"/>
+      <c r="J230" s="24"/>
       <c r="K230" s="19"/>
       <c r="L230" s="20"/>
       <c r="M230" s="20"/>
@@ -8495,20 +8202,18 @@
       <c r="U230" s="12"/>
       <c r="V230" s="13"/>
     </row>
-    <row r="231" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="44"/>
       <c r="B231" s="44"/>
       <c r="C231" s="44"/>
       <c r="D231" s="44"/>
-      <c r="E231" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F231" s="22"/>
-      <c r="G231" s="22"/>
-      <c r="H231" s="22"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="24"/>
-      <c r="K231" s="19"/>
+      <c r="E231" s="27"/>
+      <c r="F231" s="27"/>
+      <c r="G231" s="27"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="20"/>
       <c r="L231" s="20"/>
       <c r="M231" s="20"/>
       <c r="N231" s="8"/>
@@ -8521,1250 +8226,9 @@
       <c r="U231" s="12"/>
       <c r="V231" s="13"/>
     </row>
-    <row r="232" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="44"/>
-      <c r="B232" s="44"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="44"/>
-      <c r="E232" s="29"/>
-      <c r="F232" s="29"/>
-      <c r="G232" s="29"/>
-      <c r="H232" s="29"/>
-      <c r="I232" s="20"/>
-      <c r="J232" s="20"/>
-      <c r="K232" s="20"/>
-      <c r="L232" s="20"/>
-      <c r="M232" s="20"/>
-      <c r="N232" s="8"/>
-      <c r="O232" s="8"/>
-      <c r="P232" s="8"/>
-      <c r="Q232" s="8"/>
-      <c r="R232" s="8"/>
-      <c r="S232" s="10"/>
-      <c r="T232" s="11"/>
-      <c r="U232" s="12"/>
-      <c r="V232" s="13"/>
-    </row>
-    <row r="233" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="44"/>
-      <c r="B233" s="44"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="44"/>
-      <c r="E233" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="F233" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G233" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H233" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I233" s="20"/>
-      <c r="J233" s="20"/>
-      <c r="K233" s="20"/>
-      <c r="L233" s="20"/>
-      <c r="M233" s="20"/>
-      <c r="N233" s="8"/>
-      <c r="O233" s="8"/>
-      <c r="P233" s="8"/>
-      <c r="Q233" s="8"/>
-      <c r="R233" s="8"/>
-      <c r="S233" s="10"/>
-      <c r="T233" s="11"/>
-      <c r="U233" s="12"/>
-      <c r="V233" s="13"/>
-    </row>
-    <row r="234" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="44"/>
-      <c r="B234" s="44"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="44"/>
-      <c r="E234" s="29"/>
-      <c r="F234" s="29"/>
-      <c r="G234" s="29"/>
-      <c r="H234" s="29"/>
-      <c r="I234" s="20"/>
-      <c r="J234" s="20"/>
-      <c r="K234" s="20"/>
-      <c r="L234" s="20"/>
-      <c r="M234" s="20"/>
-      <c r="N234" s="8"/>
-      <c r="O234" s="8"/>
-      <c r="P234" s="8"/>
-      <c r="Q234" s="8"/>
-      <c r="R234" s="8"/>
-      <c r="S234" s="10"/>
-      <c r="T234" s="11"/>
-      <c r="U234" s="12"/>
-      <c r="V234" s="13"/>
-    </row>
-    <row r="235" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="44"/>
-      <c r="B235" s="44"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="44"/>
-      <c r="E235" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F235" s="16"/>
-      <c r="G235" s="16"/>
-      <c r="H235" s="16"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="18"/>
-      <c r="K235" s="19"/>
-      <c r="L235" s="20"/>
-      <c r="M235" s="20"/>
-      <c r="N235" s="8"/>
-      <c r="O235" s="8"/>
-      <c r="P235" s="8"/>
-      <c r="Q235" s="8"/>
-      <c r="R235" s="8"/>
-      <c r="S235" s="10"/>
-      <c r="T235" s="11"/>
-      <c r="U235" s="12"/>
-      <c r="V235" s="13"/>
-    </row>
-    <row r="236" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="44"/>
-      <c r="B236" s="44"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="44"/>
-      <c r="E236" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F236" s="22"/>
-      <c r="G236" s="22"/>
-      <c r="H236" s="22"/>
-      <c r="I236" s="23"/>
-      <c r="J236" s="24"/>
-      <c r="K236" s="19"/>
-      <c r="L236" s="20"/>
-      <c r="M236" s="20"/>
-      <c r="N236" s="8"/>
-      <c r="O236" s="8"/>
-      <c r="P236" s="8"/>
-      <c r="Q236" s="8"/>
-      <c r="R236" s="8"/>
-      <c r="S236" s="10"/>
-      <c r="T236" s="11"/>
-      <c r="U236" s="12"/>
-      <c r="V236" s="13"/>
-    </row>
-    <row r="237" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="44"/>
-      <c r="B237" s="44"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="44"/>
-      <c r="E237" s="29"/>
-      <c r="F237" s="29"/>
-      <c r="G237" s="29"/>
-      <c r="H237" s="29"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-      <c r="K237" s="20"/>
-      <c r="L237" s="20"/>
-      <c r="M237" s="20"/>
-      <c r="N237" s="8"/>
-      <c r="O237" s="8"/>
-      <c r="P237" s="8"/>
-      <c r="Q237" s="8"/>
-      <c r="R237" s="8"/>
-      <c r="S237" s="10"/>
-      <c r="T237" s="11"/>
-      <c r="U237" s="12"/>
-      <c r="V237" s="13"/>
-    </row>
-    <row r="238" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="44"/>
-      <c r="B238" s="44"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="44"/>
-      <c r="E238" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F238" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G238" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H238" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I238" s="20"/>
-      <c r="J238" s="20"/>
-      <c r="K238" s="20"/>
-      <c r="L238" s="20"/>
-      <c r="M238" s="20"/>
-      <c r="N238" s="8"/>
-      <c r="O238" s="8"/>
-      <c r="P238" s="8"/>
-      <c r="Q238" s="8"/>
-      <c r="R238" s="8"/>
-      <c r="S238" s="10"/>
-      <c r="T238" s="11"/>
-      <c r="U238" s="12"/>
-      <c r="V238" s="13"/>
-    </row>
-    <row r="239" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="44"/>
-      <c r="B239" s="44"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="44"/>
-      <c r="E239" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F239" s="16"/>
-      <c r="G239" s="16"/>
-      <c r="H239" s="16"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="18"/>
-      <c r="K239" s="19"/>
-      <c r="L239" s="20"/>
-      <c r="M239" s="20"/>
-      <c r="N239" s="8"/>
-      <c r="O239" s="8"/>
-      <c r="P239" s="8"/>
-      <c r="Q239" s="8"/>
-      <c r="R239" s="8"/>
-      <c r="S239" s="10"/>
-      <c r="T239" s="11"/>
-      <c r="U239" s="12"/>
-      <c r="V239" s="13"/>
-    </row>
-    <row r="240" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="44"/>
-      <c r="B240" s="44"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="44"/>
-      <c r="E240" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F240" s="22"/>
-      <c r="G240" s="22"/>
-      <c r="H240" s="22"/>
-      <c r="I240" s="23"/>
-      <c r="J240" s="24"/>
-      <c r="K240" s="19"/>
-      <c r="L240" s="20"/>
-      <c r="M240" s="20"/>
-      <c r="N240" s="8"/>
-      <c r="O240" s="8"/>
-      <c r="P240" s="8"/>
-      <c r="Q240" s="8"/>
-      <c r="R240" s="8"/>
-      <c r="S240" s="10"/>
-      <c r="T240" s="11"/>
-      <c r="U240" s="12"/>
-      <c r="V240" s="13"/>
-    </row>
-    <row r="241" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="44"/>
-      <c r="B241" s="44"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="44"/>
-      <c r="E241" s="25"/>
-      <c r="F241" s="25"/>
-      <c r="G241" s="25"/>
-      <c r="H241" s="25"/>
-      <c r="I241" s="26"/>
-      <c r="J241" s="26"/>
-      <c r="K241" s="20"/>
-      <c r="L241" s="20"/>
-      <c r="M241" s="20"/>
-      <c r="N241" s="8"/>
-      <c r="O241" s="8"/>
-      <c r="P241" s="8"/>
-      <c r="Q241" s="8"/>
-      <c r="R241" s="8"/>
-      <c r="S241" s="10"/>
-      <c r="T241" s="11"/>
-      <c r="U241" s="12"/>
-      <c r="V241" s="13"/>
-    </row>
-    <row r="242" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="44"/>
-      <c r="B242" s="44"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="44"/>
-      <c r="E242" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F242" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G242" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H242" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I242" s="17"/>
-      <c r="J242" s="18"/>
-      <c r="K242" s="19"/>
-      <c r="L242" s="20"/>
-      <c r="M242" s="20"/>
-      <c r="N242" s="8"/>
-      <c r="O242" s="8"/>
-      <c r="P242" s="8"/>
-      <c r="Q242" s="8"/>
-      <c r="R242" s="8"/>
-      <c r="S242" s="10"/>
-      <c r="T242" s="11"/>
-      <c r="U242" s="12"/>
-      <c r="V242" s="13"/>
-    </row>
-    <row r="243" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="44"/>
-      <c r="B243" s="44"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="44"/>
-      <c r="E243" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="F243" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G243" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H243" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I243" s="23"/>
-      <c r="J243" s="24"/>
-      <c r="K243" s="19"/>
-      <c r="L243" s="20"/>
-      <c r="M243" s="20"/>
-      <c r="N243" s="8"/>
-      <c r="O243" s="8"/>
-      <c r="P243" s="8"/>
-      <c r="Q243" s="8"/>
-      <c r="R243" s="8"/>
-      <c r="S243" s="10"/>
-      <c r="T243" s="11"/>
-      <c r="U243" s="12"/>
-      <c r="V243" s="13"/>
-    </row>
-    <row r="244" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="44"/>
-      <c r="B244" s="44"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="44"/>
-      <c r="E244" s="27"/>
-      <c r="F244" s="27"/>
-      <c r="G244" s="27"/>
-      <c r="H244" s="27"/>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28"/>
-      <c r="K244" s="20"/>
-      <c r="L244" s="20"/>
-      <c r="M244" s="20"/>
-      <c r="N244" s="8"/>
-      <c r="O244" s="8"/>
-      <c r="P244" s="8"/>
-      <c r="Q244" s="8"/>
-      <c r="R244" s="8"/>
-      <c r="S244" s="10"/>
-      <c r="T244" s="11"/>
-      <c r="U244" s="12"/>
-      <c r="V244" s="13"/>
-    </row>
-    <row r="245" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="44"/>
-      <c r="B245" s="44"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="44"/>
-      <c r="E245" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F245" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G245" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H245" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I245" s="26"/>
-      <c r="J245" s="26"/>
-      <c r="K245" s="20"/>
-      <c r="L245" s="20"/>
-      <c r="M245" s="20"/>
-      <c r="N245" s="8"/>
-      <c r="O245" s="8"/>
-      <c r="P245" s="8"/>
-      <c r="Q245" s="8"/>
-      <c r="R245" s="8"/>
-      <c r="S245" s="10"/>
-      <c r="T245" s="11"/>
-      <c r="U245" s="12"/>
-      <c r="V245" s="13"/>
-    </row>
-    <row r="246" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="44"/>
-      <c r="B246" s="44"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="44"/>
-      <c r="E246" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F246" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G246" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H246" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I246" s="17"/>
-      <c r="J246" s="18"/>
-      <c r="K246" s="19"/>
-      <c r="L246" s="20"/>
-      <c r="M246" s="20"/>
-      <c r="N246" s="8"/>
-      <c r="O246" s="8"/>
-      <c r="P246" s="8"/>
-      <c r="Q246" s="8"/>
-      <c r="R246" s="8"/>
-      <c r="S246" s="10"/>
-      <c r="T246" s="11"/>
-      <c r="U246" s="12"/>
-      <c r="V246" s="13"/>
-    </row>
-    <row r="247" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="44"/>
-      <c r="B247" s="44"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="44"/>
-      <c r="E247" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F247" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G247" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H247" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I247" s="23"/>
-      <c r="J247" s="24"/>
-      <c r="K247" s="19"/>
-      <c r="L247" s="20"/>
-      <c r="M247" s="20"/>
-      <c r="N247" s="8"/>
-      <c r="O247" s="8"/>
-      <c r="P247" s="8"/>
-      <c r="Q247" s="8"/>
-      <c r="R247" s="8"/>
-      <c r="S247" s="10"/>
-      <c r="T247" s="11"/>
-      <c r="U247" s="12"/>
-      <c r="V247" s="13"/>
-    </row>
-    <row r="248" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="44"/>
-      <c r="B248" s="44"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="27"/>
-      <c r="F248" s="27"/>
-      <c r="G248" s="27"/>
-      <c r="H248" s="27"/>
-      <c r="I248" s="28"/>
-      <c r="J248" s="28"/>
-      <c r="K248" s="20"/>
-      <c r="L248" s="20"/>
-      <c r="M248" s="20"/>
-      <c r="N248" s="8"/>
-      <c r="O248" s="8"/>
-      <c r="P248" s="8"/>
-      <c r="Q248" s="8"/>
-      <c r="R248" s="8"/>
-      <c r="S248" s="10"/>
-      <c r="T248" s="11"/>
-      <c r="U248" s="12"/>
-      <c r="V248" s="13"/>
-    </row>
-    <row r="249" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="44"/>
-      <c r="B249" s="44"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="44"/>
-      <c r="E249" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F249" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G249" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H249" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I249" s="26"/>
-      <c r="J249" s="26"/>
-      <c r="K249" s="30"/>
-      <c r="L249" s="20"/>
-      <c r="M249" s="20"/>
-      <c r="N249" s="8"/>
-      <c r="O249" s="8"/>
-      <c r="P249" s="8"/>
-      <c r="Q249" s="8"/>
-      <c r="R249" s="8"/>
-      <c r="S249" s="10"/>
-      <c r="T249" s="11"/>
-      <c r="U249" s="12"/>
-      <c r="V249" s="13"/>
-    </row>
-    <row r="250" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="44"/>
-      <c r="B250" s="44"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="44"/>
-      <c r="E250" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F250" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G250" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H250" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I250" s="17"/>
-      <c r="J250" s="18"/>
-      <c r="K250" s="19"/>
-      <c r="L250" s="20"/>
-      <c r="M250" s="20"/>
-      <c r="N250" s="8"/>
-      <c r="O250" s="8"/>
-      <c r="P250" s="8"/>
-      <c r="Q250" s="8"/>
-      <c r="R250" s="8"/>
-      <c r="S250" s="10"/>
-      <c r="T250" s="11"/>
-      <c r="U250" s="12"/>
-      <c r="V250" s="13"/>
-    </row>
-    <row r="251" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="44"/>
-      <c r="B251" s="44"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="44"/>
-      <c r="E251" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G251" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H251" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I251" s="23"/>
-      <c r="J251" s="24"/>
-      <c r="K251" s="19"/>
-      <c r="L251" s="20"/>
-      <c r="M251" s="20"/>
-      <c r="N251" s="8"/>
-      <c r="O251" s="8"/>
-      <c r="P251" s="8"/>
-      <c r="Q251" s="8"/>
-      <c r="R251" s="8"/>
-      <c r="S251" s="10"/>
-      <c r="T251" s="11"/>
-      <c r="U251" s="12"/>
-      <c r="V251" s="13"/>
-    </row>
-    <row r="252" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="44"/>
-      <c r="B252" s="44"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="44"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="34"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="20"/>
-      <c r="L252" s="20"/>
-      <c r="M252" s="20"/>
-      <c r="N252" s="8"/>
-      <c r="O252" s="8"/>
-      <c r="P252" s="8"/>
-      <c r="Q252" s="8"/>
-      <c r="R252" s="8"/>
-      <c r="S252" s="10"/>
-      <c r="T252" s="11"/>
-      <c r="U252" s="12"/>
-      <c r="V252" s="13"/>
-    </row>
-    <row r="253" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
-      <c r="B253" s="44"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="44"/>
-      <c r="E253" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F253" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G253" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H253" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I253" s="17"/>
-      <c r="J253" s="18"/>
-      <c r="K253" s="19"/>
-      <c r="L253" s="20"/>
-      <c r="M253" s="20"/>
-      <c r="N253" s="8"/>
-      <c r="O253" s="8"/>
-      <c r="P253" s="8"/>
-      <c r="Q253" s="8"/>
-      <c r="R253" s="8"/>
-      <c r="S253" s="10"/>
-      <c r="T253" s="11"/>
-      <c r="U253" s="12"/>
-      <c r="V253" s="13"/>
-    </row>
-    <row r="254" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="44"/>
-      <c r="B254" s="44"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="44"/>
-      <c r="E254" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="F254" s="22"/>
-      <c r="G254" s="22"/>
-      <c r="H254" s="22"/>
-      <c r="I254" s="23"/>
-      <c r="J254" s="24"/>
-      <c r="K254" s="19"/>
-      <c r="L254" s="20"/>
-      <c r="M254" s="20"/>
-      <c r="N254" s="8"/>
-      <c r="O254" s="8"/>
-      <c r="P254" s="8"/>
-      <c r="Q254" s="8"/>
-      <c r="R254" s="8"/>
-      <c r="S254" s="10"/>
-      <c r="T254" s="11"/>
-      <c r="U254" s="12"/>
-      <c r="V254" s="13"/>
-    </row>
-    <row r="255" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="44"/>
-      <c r="B255" s="44"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="44"/>
-      <c r="E255" s="29"/>
-      <c r="F255" s="29"/>
-      <c r="G255" s="29"/>
-      <c r="H255" s="29"/>
-      <c r="I255" s="20"/>
-      <c r="J255" s="20"/>
-      <c r="K255" s="20"/>
-      <c r="L255" s="20"/>
-      <c r="M255" s="20"/>
-      <c r="N255" s="8"/>
-      <c r="O255" s="8"/>
-      <c r="P255" s="8"/>
-      <c r="Q255" s="8"/>
-      <c r="R255" s="8"/>
-      <c r="S255" s="10"/>
-      <c r="T255" s="11"/>
-      <c r="U255" s="12"/>
-      <c r="V255" s="13"/>
-    </row>
-    <row r="256" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="44"/>
-      <c r="B256" s="44"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="44"/>
-      <c r="E256" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F256" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G256" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H256" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I256" s="20"/>
-      <c r="J256" s="20"/>
-      <c r="K256" s="20"/>
-      <c r="L256" s="20"/>
-      <c r="M256" s="20"/>
-      <c r="N256" s="8"/>
-      <c r="O256" s="8"/>
-      <c r="P256" s="8"/>
-      <c r="Q256" s="8"/>
-      <c r="R256" s="8"/>
-      <c r="S256" s="10"/>
-      <c r="T256" s="11"/>
-      <c r="U256" s="12"/>
-      <c r="V256" s="13"/>
-    </row>
-    <row r="257" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="44"/>
-      <c r="B257" s="44"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="44"/>
-      <c r="E257" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F257" s="16"/>
-      <c r="G257" s="16"/>
-      <c r="H257" s="16"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="18"/>
-      <c r="K257" s="19"/>
-      <c r="L257" s="20"/>
-      <c r="M257" s="20"/>
-      <c r="N257" s="8"/>
-      <c r="O257" s="8"/>
-      <c r="P257" s="8"/>
-      <c r="Q257" s="8"/>
-      <c r="R257" s="8"/>
-      <c r="S257" s="10"/>
-      <c r="T257" s="11"/>
-      <c r="U257" s="12"/>
-      <c r="V257" s="13"/>
-    </row>
-    <row r="258" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="44"/>
-      <c r="B258" s="44"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="44"/>
-      <c r="E258" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
-      <c r="I258" s="23"/>
-      <c r="J258" s="24"/>
-      <c r="K258" s="19"/>
-      <c r="L258" s="20"/>
-      <c r="M258" s="20"/>
-      <c r="N258" s="8"/>
-      <c r="O258" s="8"/>
-      <c r="P258" s="8"/>
-      <c r="Q258" s="8"/>
-      <c r="R258" s="8"/>
-      <c r="S258" s="10"/>
-      <c r="T258" s="11"/>
-      <c r="U258" s="12"/>
-      <c r="V258" s="13"/>
-    </row>
-    <row r="259" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="44"/>
-      <c r="B259" s="44"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="44"/>
-      <c r="E259" s="25"/>
-      <c r="F259" s="25"/>
-      <c r="G259" s="25"/>
-      <c r="H259" s="25"/>
-      <c r="I259" s="26"/>
-      <c r="J259" s="26"/>
-      <c r="K259" s="20"/>
-      <c r="L259" s="20"/>
-      <c r="M259" s="20"/>
-      <c r="N259" s="8"/>
-      <c r="O259" s="8"/>
-      <c r="P259" s="8"/>
-      <c r="Q259" s="8"/>
-      <c r="R259" s="8"/>
-      <c r="S259" s="10"/>
-      <c r="T259" s="11"/>
-      <c r="U259" s="12"/>
-      <c r="V259" s="13"/>
-    </row>
-    <row r="260" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="44"/>
-      <c r="B260" s="44"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="44"/>
-      <c r="E260" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F260" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H260" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I260" s="17"/>
-      <c r="J260" s="18"/>
-      <c r="K260" s="19"/>
-      <c r="L260" s="20"/>
-      <c r="M260" s="20"/>
-      <c r="N260" s="8"/>
-      <c r="O260" s="8"/>
-      <c r="P260" s="8"/>
-      <c r="Q260" s="8"/>
-      <c r="R260" s="8"/>
-      <c r="S260" s="10"/>
-      <c r="T260" s="11"/>
-      <c r="U260" s="12"/>
-      <c r="V260" s="13"/>
-    </row>
-    <row r="261" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="44"/>
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="44"/>
-      <c r="E261" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="F261" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G261" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H261" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I261" s="23"/>
-      <c r="J261" s="24"/>
-      <c r="K261" s="19"/>
-      <c r="L261" s="20"/>
-      <c r="M261" s="20"/>
-      <c r="N261" s="8"/>
-      <c r="O261" s="8"/>
-      <c r="P261" s="8"/>
-      <c r="Q261" s="8"/>
-      <c r="R261" s="8"/>
-      <c r="S261" s="10"/>
-      <c r="T261" s="11"/>
-      <c r="U261" s="12"/>
-      <c r="V261" s="13"/>
-    </row>
-    <row r="262" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="44"/>
-      <c r="B262" s="44"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="44"/>
-      <c r="E262" s="27"/>
-      <c r="F262" s="27"/>
-      <c r="G262" s="27"/>
-      <c r="H262" s="27"/>
-      <c r="I262" s="28"/>
-      <c r="J262" s="28"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20"/>
-      <c r="M262" s="20"/>
-      <c r="N262" s="8"/>
-      <c r="O262" s="8"/>
-      <c r="P262" s="8"/>
-      <c r="Q262" s="8"/>
-      <c r="R262" s="8"/>
-      <c r="S262" s="10"/>
-      <c r="T262" s="11"/>
-      <c r="U262" s="12"/>
-      <c r="V262" s="13"/>
-    </row>
-    <row r="263" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="44"/>
-      <c r="B263" s="44"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="44"/>
-      <c r="E263" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F263" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G263" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H263" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I263" s="26"/>
-      <c r="J263" s="26"/>
-      <c r="K263" s="30"/>
-      <c r="L263" s="20"/>
-      <c r="M263" s="20"/>
-      <c r="N263" s="8"/>
-      <c r="O263" s="9"/>
-      <c r="P263" s="8"/>
-      <c r="Q263" s="8"/>
-      <c r="R263" s="8"/>
-      <c r="S263" s="10"/>
-      <c r="T263" s="11"/>
-      <c r="U263" s="12"/>
-      <c r="V263" s="13"/>
-    </row>
-    <row r="264" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="44"/>
-      <c r="B264" s="44"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="44"/>
-      <c r="E264" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F264" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G264" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H264" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I264" s="17"/>
-      <c r="J264" s="18"/>
-      <c r="K264" s="19"/>
-      <c r="L264" s="20"/>
-      <c r="M264" s="20"/>
-      <c r="N264" s="8"/>
-      <c r="O264" s="8"/>
-      <c r="P264" s="8"/>
-      <c r="Q264" s="8"/>
-      <c r="R264" s="8"/>
-      <c r="S264" s="10"/>
-      <c r="T264" s="11"/>
-      <c r="U264" s="12"/>
-      <c r="V264" s="13"/>
-    </row>
-    <row r="265" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="44"/>
-      <c r="B265" s="44"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="44"/>
-      <c r="E265" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F265" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G265" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H265" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I265" s="23"/>
-      <c r="J265" s="24"/>
-      <c r="K265" s="19"/>
-      <c r="L265" s="20"/>
-      <c r="M265" s="20"/>
-      <c r="N265" s="8"/>
-      <c r="O265" s="8"/>
-      <c r="P265" s="8"/>
-      <c r="Q265" s="8"/>
-      <c r="R265" s="8"/>
-      <c r="S265" s="10"/>
-      <c r="T265" s="11"/>
-      <c r="U265" s="12"/>
-      <c r="V265" s="13"/>
-    </row>
-    <row r="266" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="44"/>
-      <c r="B266" s="44"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="44"/>
-      <c r="E266" s="27"/>
-      <c r="F266" s="27"/>
-      <c r="G266" s="27"/>
-      <c r="H266" s="27"/>
-      <c r="I266" s="28"/>
-      <c r="J266" s="28"/>
-      <c r="K266" s="20"/>
-      <c r="L266" s="20"/>
-      <c r="M266" s="20"/>
-      <c r="N266" s="8"/>
-      <c r="O266" s="8"/>
-      <c r="P266" s="8"/>
-      <c r="Q266" s="8"/>
-      <c r="R266" s="8"/>
-      <c r="S266" s="10"/>
-      <c r="T266" s="11"/>
-      <c r="U266" s="12"/>
-      <c r="V266" s="13"/>
-    </row>
-    <row r="267" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="44"/>
-      <c r="B267" s="44"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="44"/>
-      <c r="E267" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="F267" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G267" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H267" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I267" s="26"/>
-      <c r="J267" s="26"/>
-      <c r="K267" s="20"/>
-      <c r="L267" s="20"/>
-      <c r="M267" s="20"/>
-      <c r="N267" s="8"/>
-      <c r="O267" s="8"/>
-      <c r="P267" s="8"/>
-      <c r="Q267" s="8"/>
-      <c r="R267" s="8"/>
-      <c r="S267" s="10"/>
-      <c r="T267" s="11"/>
-      <c r="U267" s="12"/>
-      <c r="V267" s="13"/>
-    </row>
-    <row r="268" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="44"/>
-      <c r="B268" s="44"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="44"/>
-      <c r="E268" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G268" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H268" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I268" s="17"/>
-      <c r="J268" s="18"/>
-      <c r="K268" s="19"/>
-      <c r="L268" s="20"/>
-      <c r="M268" s="20"/>
-      <c r="N268" s="8"/>
-      <c r="O268" s="8"/>
-      <c r="P268" s="8"/>
-      <c r="Q268" s="8"/>
-      <c r="R268" s="8"/>
-      <c r="S268" s="10"/>
-      <c r="T268" s="11"/>
-      <c r="U268" s="12"/>
-      <c r="V268" s="13"/>
-    </row>
-    <row r="269" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="44"/>
-      <c r="B269" s="44"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="44"/>
-      <c r="E269" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F269" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G269" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H269" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I269" s="23"/>
-      <c r="J269" s="24"/>
-      <c r="K269" s="19"/>
-      <c r="L269" s="20"/>
-      <c r="M269" s="20"/>
-      <c r="N269" s="8"/>
-      <c r="O269" s="8"/>
-      <c r="P269" s="8"/>
-      <c r="Q269" s="8"/>
-      <c r="R269" s="8"/>
-      <c r="S269" s="10"/>
-      <c r="T269" s="11"/>
-      <c r="U269" s="12"/>
-      <c r="V269" s="13"/>
-    </row>
-    <row r="270" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="44"/>
-      <c r="B270" s="44"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="44"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-      <c r="G270" s="33"/>
-      <c r="H270" s="33"/>
-      <c r="I270" s="34"/>
-      <c r="J270" s="34"/>
-      <c r="K270" s="20"/>
-      <c r="L270" s="20"/>
-      <c r="M270" s="20"/>
-      <c r="N270" s="8"/>
-      <c r="O270" s="8"/>
-      <c r="P270" s="8"/>
-      <c r="Q270" s="8"/>
-      <c r="R270" s="8"/>
-      <c r="S270" s="10"/>
-      <c r="T270" s="11"/>
-      <c r="U270" s="12"/>
-      <c r="V270" s="13"/>
-    </row>
-    <row r="271" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="44"/>
-      <c r="B271" s="44"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="44"/>
-      <c r="E271" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F271" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G271" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H271" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I271" s="38"/>
-      <c r="J271" s="18"/>
-      <c r="K271" s="39"/>
-      <c r="L271" s="20"/>
-      <c r="M271" s="20"/>
-      <c r="N271" s="8"/>
-      <c r="O271" s="8"/>
-      <c r="P271" s="8"/>
-      <c r="Q271" s="8"/>
-      <c r="R271" s="8"/>
-      <c r="S271" s="10"/>
-      <c r="T271" s="11"/>
-      <c r="U271" s="12"/>
-      <c r="V271" s="13"/>
-    </row>
-    <row r="272" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="44"/>
-      <c r="B272" s="44"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="44"/>
-      <c r="E272" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F272" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G272" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H272" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I272" s="23"/>
-      <c r="J272" s="24"/>
-      <c r="K272" s="19"/>
-      <c r="L272" s="20"/>
-      <c r="M272" s="20"/>
-      <c r="N272" s="8"/>
-      <c r="O272" s="8"/>
-      <c r="P272" s="8"/>
-      <c r="Q272" s="8"/>
-      <c r="R272" s="8"/>
-      <c r="S272" s="10"/>
-      <c r="T272" s="11"/>
-      <c r="U272" s="12"/>
-      <c r="V272" s="13"/>
-    </row>
-    <row r="273" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="44"/>
-      <c r="B273" s="44"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="44"/>
-      <c r="E273" s="27"/>
-      <c r="F273" s="27"/>
-      <c r="G273" s="27"/>
-      <c r="H273" s="27"/>
-      <c r="I273" s="28"/>
-      <c r="J273" s="28"/>
-      <c r="K273" s="20"/>
-      <c r="L273" s="20"/>
-      <c r="M273" s="20"/>
-      <c r="N273" s="8"/>
-      <c r="O273" s="8"/>
-      <c r="P273" s="8"/>
-      <c r="Q273" s="8"/>
-      <c r="R273" s="8"/>
-      <c r="S273" s="10"/>
-      <c r="T273" s="11"/>
-      <c r="U273" s="12"/>
-      <c r="V273" s="13"/>
-    </row>
-    <row r="274" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="44"/>
-      <c r="B274" s="44"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="44"/>
-      <c r="E274" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="F274" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G274" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H274" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I274" s="20"/>
-      <c r="J274" s="20"/>
-      <c r="K274" s="20"/>
-      <c r="L274" s="20"/>
-      <c r="M274" s="20"/>
-      <c r="N274" s="8"/>
-      <c r="O274" s="8"/>
-      <c r="P274" s="8"/>
-      <c r="Q274" s="8"/>
-      <c r="R274" s="8"/>
-      <c r="S274" s="10"/>
-      <c r="T274" s="11"/>
-      <c r="U274" s="12"/>
-      <c r="V274" s="13"/>
-    </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="21">
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
     <mergeCell ref="T4:T6"/>
     <mergeCell ref="U4:U6"/>
     <mergeCell ref="V4:V6"/>
@@ -9775,117 +8239,122 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S4:S6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
   </mergeCells>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+  <conditionalFormatting sqref="E168:E169">
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E199:E200">
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+  <conditionalFormatting sqref="E211">
+    <cfRule type="duplicateValues" dxfId="33" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E250">
-    <cfRule type="duplicateValues" dxfId="34" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:E20">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E32">
+  <conditionalFormatting sqref="E27:E29">
     <cfRule type="duplicateValues" dxfId="32" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E25">
+  <conditionalFormatting sqref="E22:E23">
     <cfRule type="duplicateValues" dxfId="31" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27 E22:E23">
+  <conditionalFormatting sqref="E24:E25 E20:E21">
     <cfRule type="duplicateValues" dxfId="30" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E67">
+  <conditionalFormatting sqref="E55:E57">
     <cfRule type="duplicateValues" dxfId="29" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130 E94:E95 E115 E97:E98 E101 E108 E111:E113">
+  <conditionalFormatting sqref="E111 E80 E97 E82 E85 E91 E94:E95">
     <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
+  <conditionalFormatting sqref="E19">
     <cfRule type="duplicateValues" dxfId="27" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 E12">
     <cfRule type="duplicateValues" dxfId="26" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+  <conditionalFormatting sqref="E31:E33">
+    <cfRule type="duplicateValues" dxfId="25" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E37">
-    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+  <conditionalFormatting sqref="E58 E54">
+    <cfRule type="duplicateValues" dxfId="24" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42:E46">
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68 E60 E63:E64">
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E91 E86 E79:E81 E71:E74 E83">
-    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114">
-    <cfRule type="duplicateValues" dxfId="20" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165:E166 E163 E160 E133:E137 E140:E141 E144 E148:E149 E151">
-    <cfRule type="duplicateValues" dxfId="19" priority="36"/>
+  <conditionalFormatting sqref="E140:E141 E136 E114:E117 E120:E121 E123 E128">
+    <cfRule type="duplicateValues" dxfId="22" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="16" priority="37"/>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="duplicateValues" dxfId="19" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:E59">
-    <cfRule type="duplicateValues" dxfId="15" priority="38"/>
+  <conditionalFormatting sqref="E192:E193">
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+  <conditionalFormatting sqref="E195:E196">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E227:E228">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  <conditionalFormatting sqref="E199:E200">
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E230:E231">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+  <conditionalFormatting sqref="E202:E203">
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E235:E236">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  <conditionalFormatting sqref="E215">
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E239:E240">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  <conditionalFormatting sqref="E217:E218">
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E254">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E257:E258">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E206 E1:E12 E208:E1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="E175:E1048576 E15:E173 E1:E12">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E208:E1048576 E1:E13 E15:E206">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  <conditionalFormatting sqref="E175:E1048576 E1:E13 E15:E173">
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E207">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="E174">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E1048576 E1:E13">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:E77 E73 E67:E68 E61:E63 E70">
+    <cfRule type="duplicateValues" dxfId="4" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43:E51">
+    <cfRule type="duplicateValues" dxfId="3" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:E40">
+    <cfRule type="duplicateValues" dxfId="2" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="duplicateValues" dxfId="1" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E18">
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
